--- a/data/trans_orig/P63C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P63C-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>458565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>440552</v>
+        <v>440269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>475038</v>
+        <v>475098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8339244690259757</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8011671428897045</v>
+        <v>0.8006518249908375</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8638811081270876</v>
+        <v>0.8639902870118655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>439</v>
@@ -765,19 +765,19 @@
         <v>464339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>448182</v>
+        <v>446779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>477207</v>
+        <v>477034</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8925165567307095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8614614920168837</v>
+        <v>0.8587635815087524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9172503743553791</v>
+        <v>0.9169188235959563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>888</v>
@@ -786,19 +786,19 @@
         <v>922904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>899398</v>
+        <v>901500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>945103</v>
+        <v>946205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8624093829024486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8404446253851141</v>
+        <v>0.8424084561225333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8831531427908393</v>
+        <v>0.8841829152242046</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>25735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17134</v>
+        <v>17002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35502</v>
+        <v>37507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04680133280511176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03115979535630044</v>
+        <v>0.03091886502107637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06456240546900542</v>
+        <v>0.06820847945513213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>8146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4047</v>
+        <v>3122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15419</v>
+        <v>15172</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01565814694936136</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007778975274849537</v>
+        <v>0.006000058209561882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02963666721317132</v>
+        <v>0.02916225307506695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -857,19 +857,19 @@
         <v>33882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23241</v>
+        <v>23482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46010</v>
+        <v>46949</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03166087610367962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02171762218233097</v>
+        <v>0.02194280849970368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04299396511169859</v>
+        <v>0.04387173726053191</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5570</v>
+        <v>5634</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002026579117164205</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0101302124546504</v>
+        <v>0.01024583123877661</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5958</v>
+        <v>6974</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003757532457313802</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01145281634965659</v>
+        <v>0.01340536251916375</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>935</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9047</v>
+        <v>9030</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002868093027145103</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0008734469289883523</v>
+        <v>0.0008732871281896705</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008454256997307548</v>
+        <v>0.008438095588542242</v>
       </c>
     </row>
     <row r="7">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7948</v>
+        <v>6866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004374238691762113</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01527787306205512</v>
+        <v>0.01319786246061662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6914</v>
+        <v>7960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002126563795403251</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006460830885410098</v>
+        <v>0.007438088254371414</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>15162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9027</v>
+        <v>8575</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24347</v>
+        <v>23889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02757306897789089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01641566201975121</v>
+        <v>0.01559387071248776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0442766771989039</v>
+        <v>0.04344386994126672</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1041,19 +1041,19 @@
         <v>7017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3068</v>
+        <v>2986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14872</v>
+        <v>13429</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01348724468683152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005897167374672789</v>
+        <v>0.005739794808408706</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02858584940104856</v>
+        <v>0.0258112549717147</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1062,19 +1062,19 @@
         <v>22179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14657</v>
+        <v>13892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34204</v>
+        <v>32563</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02072515644349014</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01369650813686936</v>
+        <v>0.0129813209974963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03196216163643153</v>
+        <v>0.0304285289977376</v>
       </c>
     </row>
     <row r="9">
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7028</v>
+        <v>7095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003541546233465523</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01278044328771338</v>
+        <v>0.01290292612718704</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4594</v>
+        <v>5894</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00188511143689324</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008830579661039503</v>
+        <v>0.01132989878062886</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1133,19 +1133,19 @@
         <v>2928</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7976</v>
+        <v>7943</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002736259984575945</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008598052108749813</v>
+        <v>0.0008565553016052237</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007453495246416285</v>
+        <v>0.007422189350906848</v>
       </c>
     </row>
     <row r="10">
@@ -1162,19 +1162,19 @@
         <v>47364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35611</v>
+        <v>35672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61682</v>
+        <v>62542</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08613300384039187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06476020888083421</v>
+        <v>0.06487101105032198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1121715818468957</v>
+        <v>0.1137353598870432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1183,19 +1183,19 @@
         <v>35545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25807</v>
+        <v>25111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49949</v>
+        <v>50036</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0683211690471284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04960422298149508</v>
+        <v>0.04826586389270122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09600813558274685</v>
+        <v>0.09617630406285989</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1204,19 +1204,19 @@
         <v>82908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66500</v>
+        <v>66617</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102218</v>
+        <v>100202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07747366774325737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06214116550382178</v>
+        <v>0.06225053919491607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09551777644440579</v>
+        <v>0.09363371004486931</v>
       </c>
     </row>
     <row r="11">
@@ -1308,19 +1308,19 @@
         <v>790568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>766934</v>
+        <v>762326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>819220</v>
+        <v>817403</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7872648979395264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7637291327012841</v>
+        <v>0.7591409721531661</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8157972502717438</v>
+        <v>0.8139876997897203</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>553</v>
@@ -1329,19 +1329,19 @@
         <v>575235</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>556542</v>
+        <v>556126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>591590</v>
+        <v>591093</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8670366198452369</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8388614693068127</v>
+        <v>0.8382353943277916</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8916893425007208</v>
+        <v>0.8909391953675865</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1326</v>
@@ -1350,19 +1350,19 @@
         <v>1365803</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1332352</v>
+        <v>1333522</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1395779</v>
+        <v>1394830</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8190009360675629</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7989421630697326</v>
+        <v>0.7996436153163033</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8369758153953136</v>
+        <v>0.8364071639210451</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>52472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39752</v>
+        <v>39473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66511</v>
+        <v>67684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05225242623302309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03958545274725454</v>
+        <v>0.03930758122241078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0662332166415734</v>
+        <v>0.06740074476556628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1400,19 +1400,19 @@
         <v>5134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11368</v>
+        <v>11244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007738361200093775</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003039781720064355</v>
+        <v>0.003034143383990875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01713429934493526</v>
+        <v>0.01694838144502411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1421,19 +1421,19 @@
         <v>57606</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44313</v>
+        <v>44932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73720</v>
+        <v>73706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03454314239947695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02657221147790335</v>
+        <v>0.02694359430037019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04420579195730946</v>
+        <v>0.04419750437445533</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>7290</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3030</v>
+        <v>3106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14152</v>
+        <v>14241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007259929660142308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003017561115349961</v>
+        <v>0.003093256058058944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01409282049086402</v>
+        <v>0.01418117421511071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6225</v>
+        <v>6079</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003037707273462929</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009382723237674678</v>
+        <v>0.009163456169250522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1492,19 +1492,19 @@
         <v>9306</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4049</v>
+        <v>4219</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16523</v>
+        <v>17380</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005580178898248405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002427732172723008</v>
+        <v>0.002529981587600618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009908116495073725</v>
+        <v>0.01042190497258983</v>
       </c>
     </row>
     <row r="15">
@@ -1524,16 +1524,16 @@
         <v>871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10043</v>
+        <v>11683</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003567720484264874</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0008671514194888559</v>
+        <v>0.0008670138454763398</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01000143957065232</v>
+        <v>0.01163383732702918</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1555,19 +1555,19 @@
         <v>3583</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10568</v>
+        <v>10663</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00214835393915459</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0005226290332404973</v>
+        <v>0.0005251046474334239</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.006337036609890237</v>
+        <v>0.006394130993466531</v>
       </c>
     </row>
     <row r="16">
@@ -1584,19 +1584,19 @@
         <v>18688</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11644</v>
+        <v>11501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29458</v>
+        <v>28291</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01861040926149988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01159562832809687</v>
+        <v>0.01145257485038788</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02933495223574747</v>
+        <v>0.02817254335534384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1605,19 +1605,19 @@
         <v>17391</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10262</v>
+        <v>10250</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27602</v>
+        <v>27370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02621297372808639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01546776756531472</v>
+        <v>0.01545015073356649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04160353662273027</v>
+        <v>0.04125382405590628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1626,19 +1626,19 @@
         <v>36079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25546</v>
+        <v>25442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50409</v>
+        <v>50582</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02163498075147761</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01531845436678224</v>
+        <v>0.01525639981687807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03022788831594827</v>
+        <v>0.03033128856044312</v>
       </c>
     </row>
     <row r="17">
@@ -1655,19 +1655,19 @@
         <v>10729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4792</v>
+        <v>4652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20823</v>
+        <v>21742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01068381216164986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004771781240097861</v>
+        <v>0.004632679362391272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02073609749455991</v>
+        <v>0.02165120207719121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1676,19 +1676,19 @@
         <v>4160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1180</v>
+        <v>1015</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10748</v>
+        <v>10316</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00626985241164241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001778929167220079</v>
+        <v>0.00152927531021661</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01619949260520401</v>
+        <v>0.01554859071426784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1697,19 +1697,19 @@
         <v>14888</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7832</v>
+        <v>7923</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27009</v>
+        <v>25196</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008927781433274336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004696243545983204</v>
+        <v>0.004750714746129005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01619596482949005</v>
+        <v>0.01510882600557326</v>
       </c>
     </row>
     <row r="18">
@@ -1726,19 +1726,19 @@
         <v>120866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99663</v>
+        <v>100823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141910</v>
+        <v>143071</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1203608042598936</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09924700371169387</v>
+        <v>0.1004013184155184</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1413174842863708</v>
+        <v>0.1424727725175573</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -1747,19 +1747,19 @@
         <v>59514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45870</v>
+        <v>47253</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74226</v>
+        <v>75898</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08970448554147753</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0691381777586197</v>
+        <v>0.07122257312773113</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1118785107135192</v>
+        <v>0.1143984929258627</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>178</v>
@@ -1768,19 +1768,19 @@
         <v>180380</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157041</v>
+        <v>157909</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>206641</v>
+        <v>210135</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1081646265108053</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09416919083100171</v>
+        <v>0.09468957616894022</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1239116879137883</v>
+        <v>0.1260070747324307</v>
       </c>
     </row>
     <row r="19">
@@ -1872,19 +1872,19 @@
         <v>677656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>646790</v>
+        <v>647027</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>704632</v>
+        <v>708361</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6860398596862185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6547923025588419</v>
+        <v>0.6550320977301478</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.71334977165355</v>
+        <v>0.7171253605558312</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>530</v>
@@ -1893,19 +1893,19 @@
         <v>539526</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>518138</v>
+        <v>517072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>557557</v>
+        <v>558763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8209357430893653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7883914100801964</v>
+        <v>0.786769268201804</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8483716298443909</v>
+        <v>0.8502052184138925</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1189</v>
@@ -1914,19 +1914,19 @@
         <v>1217182</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1182384</v>
+        <v>1178159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1253818</v>
+        <v>1247999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.739933725215548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7187798488155326</v>
+        <v>0.7162110759987972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.76220494147412</v>
+        <v>0.7586672455066029</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>80694</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>64885</v>
+        <v>65413</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>100019</v>
+        <v>100676</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08169222965648787</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0656880821109255</v>
+        <v>0.0662223088297841</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1012568170898841</v>
+        <v>0.1019216964995099</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1964,19 +1964,19 @@
         <v>14886</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8855</v>
+        <v>8775</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25056</v>
+        <v>24244</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02265042452133367</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01347328374804229</v>
+        <v>0.01335118321131309</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0381256045079576</v>
+        <v>0.03688868398555362</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>92</v>
@@ -1985,19 +1985,19 @@
         <v>95580</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>77702</v>
+        <v>76289</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116449</v>
+        <v>116320</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05810373291153349</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04723562313570415</v>
+        <v>0.04637681766236432</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07078988684811507</v>
+        <v>0.07071154641422221</v>
       </c>
     </row>
     <row r="22">
@@ -2014,19 +2014,19 @@
         <v>2995</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8100</v>
+        <v>9070</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003032339253823184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0009785545163637597</v>
+        <v>0.0009799721736152042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008200277096964338</v>
+        <v>0.00918197550306837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5133</v>
+        <v>5049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001392112592754548</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00781047759885945</v>
+        <v>0.00768259958296116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2056,19 +2056,19 @@
         <v>3910</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10361</v>
+        <v>10080</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002377032710145574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0005982393642509502</v>
+        <v>0.0005958465036524854</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006298289321630086</v>
+        <v>0.006127653501964815</v>
       </c>
     </row>
     <row r="23">
@@ -2085,19 +2085,19 @@
         <v>14390</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7785</v>
+        <v>7504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23781</v>
+        <v>23138</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0145682438347696</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007880999576929396</v>
+        <v>0.007596595070000637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02407565322697666</v>
+        <v>0.02342410506905458</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6521</v>
+        <v>6601</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002857188696890561</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009922432364518657</v>
+        <v>0.01004328073171054</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2127,19 +2127,19 @@
         <v>16268</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9175</v>
+        <v>9375</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26441</v>
+        <v>26915</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009889420323742485</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005577367553306927</v>
+        <v>0.0056988446817771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01607379193113196</v>
+        <v>0.016361669072696</v>
       </c>
     </row>
     <row r="24">
@@ -2156,19 +2156,19 @@
         <v>73061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56510</v>
+        <v>58121</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89013</v>
+        <v>90301</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07396517124821514</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05720946960767607</v>
+        <v>0.05883960099697589</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09011381007810586</v>
+        <v>0.09141819711714179</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -2177,19 +2177,19 @@
         <v>12072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5981</v>
+        <v>6501</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20738</v>
+        <v>21035</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01836817444602262</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009100674886392671</v>
+        <v>0.009891925465173448</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.031553944484429</v>
+        <v>0.03200693508467818</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -2198,19 +2198,19 @@
         <v>85133</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69181</v>
+        <v>68908</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104577</v>
+        <v>105155</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05175295102399126</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04205549652375527</v>
+        <v>0.04188987846523484</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06357316265015829</v>
+        <v>0.06392456248370375</v>
       </c>
     </row>
     <row r="25">
@@ -2227,19 +2227,19 @@
         <v>13706</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7323</v>
+        <v>7762</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24104</v>
+        <v>24075</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01387594055885057</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007413628276524277</v>
+        <v>0.007858077193208263</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02440268802780828</v>
+        <v>0.02437326579983522</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2261,19 +2261,19 @@
         <v>13706</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7303</v>
+        <v>7463</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23843</v>
+        <v>24144</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008332197816629746</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004439756535748711</v>
+        <v>0.004536883226801263</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01449432843712825</v>
+        <v>0.01467722895800888</v>
       </c>
     </row>
     <row r="26">
@@ -2290,19 +2290,19 @@
         <v>125276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105102</v>
+        <v>103172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>146604</v>
+        <v>147544</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1268262157616352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1064027854621348</v>
+        <v>0.104447992082346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1484180577243209</v>
+        <v>0.1493691545397441</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>86</v>
@@ -2311,19 +2311,19 @@
         <v>87932</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>71494</v>
+        <v>70247</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>105915</v>
+        <v>106542</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1337963566536332</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1087840548401822</v>
+        <v>0.106886291243006</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1611593255331025</v>
+        <v>0.1621130029920028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>212</v>
@@ -2332,19 +2332,19 @@
         <v>213208</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>186603</v>
+        <v>188149</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>239534</v>
+        <v>242901</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1296109399984095</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1134375482164469</v>
+        <v>0.114377081256122</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1456146436504214</v>
+        <v>0.1476612120109965</v>
       </c>
     </row>
     <row r="27">
@@ -2436,19 +2436,19 @@
         <v>244062</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>225017</v>
+        <v>225723</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>262544</v>
+        <v>264099</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6172744088682923</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5691068822673648</v>
+        <v>0.5708925632118738</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6640197942931982</v>
+        <v>0.6679523467080217</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>185</v>
@@ -2457,19 +2457,19 @@
         <v>186763</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>172429</v>
+        <v>171618</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>198175</v>
+        <v>197941</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7828070738918148</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7227262678673883</v>
+        <v>0.7193271010554757</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8306419341468477</v>
+        <v>0.8296581630370872</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>421</v>
@@ -2478,19 +2478,19 @@
         <v>430825</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>406172</v>
+        <v>405625</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>454697</v>
+        <v>453768</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6795694162802898</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6406825325646329</v>
+        <v>0.6398205518441831</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7172245601996114</v>
+        <v>0.7157601707688002</v>
       </c>
     </row>
     <row r="29">
@@ -2507,19 +2507,19 @@
         <v>27574</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18131</v>
+        <v>18435</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38883</v>
+        <v>39450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06973883994083505</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04585531599965333</v>
+        <v>0.04662573010857198</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0983413883117412</v>
+        <v>0.09977612021638425</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2528,19 +2528,19 @@
         <v>10433</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5373</v>
+        <v>5020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20788</v>
+        <v>18646</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04372840399571862</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02252075957106637</v>
+        <v>0.02104023333325501</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08713037352539471</v>
+        <v>0.07815306290094871</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>36</v>
@@ -2549,19 +2549,19 @@
         <v>38007</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>27302</v>
+        <v>27389</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52100</v>
+        <v>51844</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05995031693384992</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04306529093607995</v>
+        <v>0.04320300641219414</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08218135097197045</v>
+        <v>0.08177755601680148</v>
       </c>
     </row>
     <row r="30">
@@ -2578,19 +2578,19 @@
         <v>8511</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3687</v>
+        <v>3827</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16600</v>
+        <v>16371</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02152498481161406</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009324466972002014</v>
+        <v>0.009678913125160988</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04198449949101449</v>
+        <v>0.04140495391218504</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5539</v>
+        <v>4789</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003956617583937444</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02321438568024998</v>
+        <v>0.02007199834600493</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2620,19 +2620,19 @@
         <v>9455</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4622</v>
+        <v>4447</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17894</v>
+        <v>17293</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01491347060377303</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007290993981405567</v>
+        <v>0.007013794666459064</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02822482821891147</v>
+        <v>0.02727765516539153</v>
       </c>
     </row>
     <row r="31">
@@ -2649,19 +2649,19 @@
         <v>10330</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5055</v>
+        <v>5121</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17644</v>
+        <v>18247</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02612748152498467</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01278467138312588</v>
+        <v>0.01295207894693445</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04462506533869223</v>
+        <v>0.04615047485536809</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>10330</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5179</v>
+        <v>4803</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18958</v>
+        <v>18117</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01629491068451364</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008168929613336302</v>
+        <v>0.007575861039425051</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02990377190016246</v>
+        <v>0.02857758661263078</v>
       </c>
     </row>
     <row r="32">
@@ -2712,19 +2712,19 @@
         <v>52799</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39710</v>
+        <v>40749</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>69343</v>
+        <v>67640</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1335381167829958</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1004338112196576</v>
+        <v>0.1030605554866536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1753812077774131</v>
+        <v>0.1710722628997976</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -2733,19 +2733,19 @@
         <v>15294</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8851</v>
+        <v>9244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24174</v>
+        <v>23883</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06410480021789972</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03709959525145628</v>
+        <v>0.03874420451009791</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.101322160743865</v>
+        <v>0.1001031928103131</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>65</v>
@@ -2754,19 +2754,19 @@
         <v>68093</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>53120</v>
+        <v>53360</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>83207</v>
+        <v>86616</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.107408234989287</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08379050020989504</v>
+        <v>0.08416907652681312</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.131247647373981</v>
+        <v>0.1366253417301584</v>
       </c>
     </row>
     <row r="33">
@@ -2783,19 +2783,19 @@
         <v>8603</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3867</v>
+        <v>3894</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>16798</v>
+        <v>16262</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02175747799373313</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009781521040204454</v>
+        <v>0.009848230931435272</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0424844300393963</v>
+        <v>0.04112885162851728</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6028</v>
+        <v>7554</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.008211093873702405</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02526733562650518</v>
+        <v>0.03166118807991898</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>10</v>
@@ -2825,19 +2825,19 @@
         <v>10562</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4920</v>
+        <v>5003</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>18840</v>
+        <v>20398</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01665955910839915</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007761141442982163</v>
+        <v>0.007891586070272311</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02971739512362315</v>
+        <v>0.03217477048520496</v>
       </c>
     </row>
     <row r="34">
@@ -2854,19 +2854,19 @@
         <v>43508</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31516</v>
+        <v>31211</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>57549</v>
+        <v>57250</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.110038690077545</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07970992036224034</v>
+        <v>0.07893719739597896</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1455503378700986</v>
+        <v>0.1447949243215394</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>23</v>
@@ -2875,19 +2875,19 @@
         <v>23188</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15347</v>
+        <v>15313</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33098</v>
+        <v>34491</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09719201043692706</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06432636807206413</v>
+        <v>0.06418339313258355</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1387299604358588</v>
+        <v>0.1445662556683116</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>66</v>
@@ -2896,19 +2896,19 @@
         <v>66696</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>52964</v>
+        <v>54114</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>85746</v>
+        <v>86438</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1052040913998875</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08354435867715489</v>
+        <v>0.08535803000368387</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1352529759818692</v>
+        <v>0.1363446064848061</v>
       </c>
     </row>
     <row r="35">
@@ -3000,19 +3000,19 @@
         <v>2170851</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2124448</v>
+        <v>2118701</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2216066</v>
+        <v>2217202</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7390761690643616</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7232780896151768</v>
+        <v>0.7213215459272679</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7544700784559853</v>
+        <v>0.754856712355256</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1707</v>
@@ -3021,19 +3021,19 @@
         <v>1765863</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1733903</v>
+        <v>1730683</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1800901</v>
+        <v>1797176</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8491778096160461</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8338087336677522</v>
+        <v>0.8322602358984654</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8660271064174325</v>
+        <v>0.8642361410275254</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3824</v>
@@ -3042,19 +3042,19 @@
         <v>3936713</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3878474</v>
+        <v>3876843</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3995663</v>
+        <v>3995436</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7847145222221359</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.773105509303126</v>
+        <v>0.7727803811701915</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7964650732905788</v>
+        <v>0.7964199008013596</v>
       </c>
     </row>
     <row r="37">
@@ -3071,19 +3071,19 @@
         <v>186475</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>161164</v>
+        <v>162743</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>213317</v>
+        <v>215155</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06348620985735567</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05486897334359793</v>
+        <v>0.05540646172646483</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07262476118515016</v>
+        <v>0.07325051511931825</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>36</v>
@@ -3092,19 +3092,19 @@
         <v>38599</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>26971</v>
+        <v>27263</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52496</v>
+        <v>52419</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01856175870131913</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01296992347850055</v>
+        <v>0.01311052556106686</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02524448829666168</v>
+        <v>0.02520760827772999</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>221</v>
@@ -3113,19 +3113,19 @@
         <v>225074</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>198311</v>
+        <v>198015</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>257284</v>
+        <v>257727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04486452577521953</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03952988060204422</v>
+        <v>0.03947084295876142</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05128507581286348</v>
+        <v>0.05137332817716331</v>
       </c>
     </row>
     <row r="38">
@@ -3142,19 +3142,19 @@
         <v>19911</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12393</v>
+        <v>11757</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31630</v>
+        <v>31258</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.006778703032139932</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004219229269690769</v>
+        <v>0.004002893710025479</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01076864463916583</v>
+        <v>0.01064205992011796</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -3163,19 +3163,19 @@
         <v>5829</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2341</v>
+        <v>1970</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12724</v>
+        <v>11276</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.002803145848959812</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001125660409979427</v>
+        <v>0.0009471610970700914</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.006118934242625921</v>
+        <v>0.005422375395008236</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>25</v>
@@ -3184,19 +3184,19 @@
         <v>25740</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>16651</v>
+        <v>16969</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>38333</v>
+        <v>37742</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005130790414164641</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003319034493589207</v>
+        <v>0.003382510218124303</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007641025297551374</v>
+        <v>0.007523278453099491</v>
       </c>
     </row>
     <row r="39">
@@ -3213,19 +3213,19 @@
         <v>28303</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>18964</v>
+        <v>18449</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>43132</v>
+        <v>41654</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.009636001598964494</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.006456428915734124</v>
+        <v>0.00628091131621417</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01468459424650942</v>
+        <v>0.01418138482865483</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -3234,19 +3234,19 @@
         <v>4154</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1122</v>
+        <v>941</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10567</v>
+        <v>9591</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001997360022266409</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.00053953524168088</v>
+        <v>0.0004523646749595956</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.005081707491740587</v>
+        <v>0.004612031912183847</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>30</v>
@@ -3255,19 +3255,19 @@
         <v>32457</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>22280</v>
+        <v>22053</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>46520</v>
+        <v>45892</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.006469699805674171</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.004441061335941388</v>
+        <v>0.004395911112139292</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.009272887185255247</v>
+        <v>0.009147779431290847</v>
       </c>
     </row>
     <row r="40">
@@ -3284,19 +3284,19 @@
         <v>159711</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>138176</v>
+        <v>137375</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>186320</v>
+        <v>186946</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05437432680091139</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04704262582467765</v>
+        <v>0.04676986453269506</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06343350058256192</v>
+        <v>0.06364650154789318</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>49</v>
@@ -3305,19 +3305,19 @@
         <v>51774</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37173</v>
+        <v>39589</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>67392</v>
+        <v>68916</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02489724079258608</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01787597460403938</v>
+        <v>0.01903797351473357</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03240805143009924</v>
+        <v>0.03314064585917519</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>204</v>
@@ -3326,19 +3326,19 @@
         <v>211485</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>183587</v>
+        <v>184945</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>239957</v>
+        <v>241185</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04215574718148667</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03659490372066931</v>
+        <v>0.03686561689779978</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04783112560582892</v>
+        <v>0.04807596588493134</v>
       </c>
     </row>
     <row r="41">
@@ -3355,19 +3355,19 @@
         <v>34985</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>23320</v>
+        <v>23996</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>49657</v>
+        <v>50693</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01191082538645901</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007939517578185017</v>
+        <v>0.008169517240940968</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01690608464153873</v>
+        <v>0.01725874726772614</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3376,19 +3376,19 @@
         <v>7099</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2985</v>
+        <v>3011</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13994</v>
+        <v>13378</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003414037988867205</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001435608283304226</v>
+        <v>0.00144806032116995</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006729469116008835</v>
+        <v>0.006433172607462614</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3397,19 +3397,19 @@
         <v>42085</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30573</v>
+        <v>30788</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>58263</v>
+        <v>57253</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008388812617032676</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006094145793218281</v>
+        <v>0.006137053470805051</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01161367834155272</v>
+        <v>0.01141232476800459</v>
       </c>
     </row>
     <row r="42">
@@ -3426,19 +3426,19 @@
         <v>337013</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>305192</v>
+        <v>301822</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>372661</v>
+        <v>373452</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1147377642598079</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1039041191379121</v>
+        <v>0.1027565785496075</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1268741465493786</v>
+        <v>0.1271435853248454</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>200</v>
@@ -3447,19 +3447,19 @@
         <v>206179</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>179190</v>
+        <v>181873</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>233311</v>
+        <v>238517</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09914864702995531</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08616975447292956</v>
+        <v>0.08746020334003449</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1121957402936149</v>
+        <v>0.1146992107179132</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>535</v>
@@ -3468,19 +3468,19 @@
         <v>543193</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>497111</v>
+        <v>498377</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>592007</v>
+        <v>588029</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1082759019842864</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09909029760444388</v>
+        <v>0.09934264921085424</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.118006106205524</v>
+        <v>0.1172132677853272</v>
       </c>
     </row>
     <row r="43">
@@ -3812,19 +3812,19 @@
         <v>806072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>780296</v>
+        <v>777618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>829910</v>
+        <v>831691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8207339729241588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7944889823678786</v>
+        <v>0.7917624864134373</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8450053305100723</v>
+        <v>0.8468182685882184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>614</v>
@@ -3833,19 +3833,19 @@
         <v>669565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>649020</v>
+        <v>649635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>688256</v>
+        <v>689096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.873393748001617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8465937785583908</v>
+        <v>0.8473957786759982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8977734585852858</v>
+        <v>0.8988698429096906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1370</v>
@@ -3854,19 +3854,19 @@
         <v>1475638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1441635</v>
+        <v>1443294</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1505369</v>
+        <v>1505466</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8438190534790525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8243750817753593</v>
+        <v>0.8253236175734244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.860820485132802</v>
+        <v>0.8608760055829117</v>
       </c>
     </row>
     <row r="5">
@@ -3883,19 +3883,19 @@
         <v>32301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21963</v>
+        <v>22268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46157</v>
+        <v>46500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03288841546083558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0223627186693499</v>
+        <v>0.0226729527052326</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04699632599723141</v>
+        <v>0.04734541984230731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -3904,19 +3904,19 @@
         <v>12794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6625</v>
+        <v>6624</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24004</v>
+        <v>23651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01668851332044094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008642409156548141</v>
+        <v>0.008640734984112001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03131082092371245</v>
+        <v>0.03085111286861989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -3925,19 +3925,19 @@
         <v>45095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32461</v>
+        <v>31726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61939</v>
+        <v>60130</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02578667517914395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0185625218040655</v>
+        <v>0.01814183012693724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03541874622303479</v>
+        <v>0.03438425534655022</v>
       </c>
     </row>
     <row r="6">
@@ -3954,19 +3954,19 @@
         <v>9361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4141</v>
+        <v>4320</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18646</v>
+        <v>19117</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009531497824319638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004216738776896046</v>
+        <v>0.004398244279401534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01898499903058518</v>
+        <v>0.01946500398980894</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11889</v>
+        <v>10004</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003689290299499691</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01550758790712086</v>
+        <v>0.01304975104303429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -3996,19 +3996,19 @@
         <v>12190</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5848</v>
+        <v>5968</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21706</v>
+        <v>22380</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00697038108710427</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003344283864420805</v>
+        <v>0.003412567003343536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01241216490783246</v>
+        <v>0.01279775148836602</v>
       </c>
     </row>
     <row r="7">
@@ -4025,19 +4025,19 @@
         <v>6756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2421</v>
+        <v>2441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13577</v>
+        <v>14725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006879114617628517</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002465056587819617</v>
+        <v>0.002485497223996784</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01382436923910232</v>
+        <v>0.0149931707605639</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4046,19 +4046,19 @@
         <v>3082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8379</v>
+        <v>9069</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004020016925437368</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001266630849414686</v>
+        <v>0.001263869915938808</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01092993233556805</v>
+        <v>0.0118300712858759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -4067,19 +4067,19 @@
         <v>9838</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4873</v>
+        <v>4462</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18403</v>
+        <v>17667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0056257385741217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002786509697685473</v>
+        <v>0.002551305678517949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01052361278156065</v>
+        <v>0.01010245135562809</v>
       </c>
     </row>
     <row r="8">
@@ -4096,19 +4096,19 @@
         <v>23586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14947</v>
+        <v>15060</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34147</v>
+        <v>34453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02401505107304383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01521917573658765</v>
+        <v>0.01533421047815938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03476858077413196</v>
+        <v>0.03507975997938117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4117,19 +4117,19 @@
         <v>9248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4353</v>
+        <v>4077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17235</v>
+        <v>16410</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01206377200139458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005677953248509226</v>
+        <v>0.005318298471828852</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02248203453228271</v>
+        <v>0.02140605088713827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -4138,19 +4138,19 @@
         <v>32834</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22111</v>
+        <v>23307</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45054</v>
+        <v>44900</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01877582930088058</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01264357205729285</v>
+        <v>0.01332759363456089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02576331220217791</v>
+        <v>0.02567526159514829</v>
       </c>
     </row>
     <row r="9">
@@ -4167,19 +4167,19 @@
         <v>6984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2027</v>
+        <v>2016</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17443</v>
+        <v>17310</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007110894064997869</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002064019293172302</v>
+        <v>0.002052818921512424</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01776007833244619</v>
+        <v>0.01762490468895147</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4188,19 +4188,19 @@
         <v>4111</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10294</v>
+        <v>10291</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005361991483310973</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001346379743535983</v>
+        <v>0.001347049169432828</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01342747624531921</v>
+        <v>0.01342442315532589</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -4209,19 +4209,19 @@
         <v>11095</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5352</v>
+        <v>4896</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20893</v>
+        <v>21683</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006344207216800788</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003060439866242258</v>
+        <v>0.002799856599767815</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01194752384578037</v>
+        <v>0.0123989145350595</v>
       </c>
     </row>
     <row r="10">
@@ -4238,19 +4238,19 @@
         <v>97075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78161</v>
+        <v>79434</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117101</v>
+        <v>118866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09884105403501571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07958299871937891</v>
+        <v>0.08087928299071658</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1192312041898301</v>
+        <v>0.1210278783920513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -4259,19 +4259,19 @@
         <v>64997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51064</v>
+        <v>48908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83096</v>
+        <v>82371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0847826679682995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06660884241722166</v>
+        <v>0.06379698981692628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.108391866171154</v>
+        <v>0.1074458208907034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -4280,19 +4280,19 @@
         <v>162072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138730</v>
+        <v>138716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189927</v>
+        <v>187980</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09267811516289616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07933022693449894</v>
+        <v>0.07932272548255739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1086066386881705</v>
+        <v>0.1074933016389918</v>
       </c>
     </row>
     <row r="11">
@@ -4384,19 +4384,19 @@
         <v>694815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>666552</v>
+        <v>665843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>717576</v>
+        <v>720502</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7835590553426179</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7516859882032814</v>
+        <v>0.7508869839246399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8092271463844843</v>
+        <v>0.8125270764601586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>566</v>
@@ -4405,19 +4405,19 @@
         <v>611070</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>589976</v>
+        <v>591162</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>627313</v>
+        <v>629429</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8611479516300861</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8314222365134437</v>
+        <v>0.8330935079387783</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8840391168046771</v>
+        <v>0.8870206295646799</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1218</v>
@@ -4426,19 +4426,19 @@
         <v>1305884</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1273815</v>
+        <v>1275533</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1337186</v>
+        <v>1336794</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8180485513238197</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7979597663217585</v>
+        <v>0.7990357533366457</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8376576171832875</v>
+        <v>0.8374120106758829</v>
       </c>
     </row>
     <row r="13">
@@ -4455,19 +4455,19 @@
         <v>31657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21505</v>
+        <v>22450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43804</v>
+        <v>46133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03570052407016142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02425118115945665</v>
+        <v>0.02531716333467449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04939872786299126</v>
+        <v>0.05202578221163746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4476,19 +4476,19 @@
         <v>10600</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4908</v>
+        <v>4958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19837</v>
+        <v>19422</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01493731674422703</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006916757408625091</v>
+        <v>0.006986978996081618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02795578270798597</v>
+        <v>0.02737070185110694</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4497,19 +4497,19 @@
         <v>42257</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30896</v>
+        <v>30128</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58968</v>
+        <v>57257</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02647094883594922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01935445453505956</v>
+        <v>0.0188730999601826</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03693926914890084</v>
+        <v>0.03586786449256212</v>
       </c>
     </row>
     <row r="14">
@@ -4526,19 +4526,19 @@
         <v>6999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2951</v>
+        <v>2825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15130</v>
+        <v>15937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007892402791085842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003327417330313425</v>
+        <v>0.003185624934816121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01706198637793326</v>
+        <v>0.01797254327176219</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -4547,19 +4547,19 @@
         <v>5612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2109</v>
+        <v>2184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12352</v>
+        <v>12314</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007908571981555507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002972348104566942</v>
+        <v>0.003077219658847427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01740654104290917</v>
+        <v>0.01735339428700254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -4568,19 +4568,19 @@
         <v>12610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6425</v>
+        <v>6493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22399</v>
+        <v>22806</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007899590252905851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004025039641235144</v>
+        <v>0.004067495487073908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01403156035409703</v>
+        <v>0.01428653384102302</v>
       </c>
     </row>
     <row r="15">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6989</v>
+        <v>6948</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002217759388396608</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.007881447743937243</v>
+        <v>0.007834980272273256</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6910</v>
+        <v>6804</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001231930137391633</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004328926590256414</v>
+        <v>0.004262116342972952</v>
       </c>
     </row>
     <row r="16">
@@ -4660,19 +4660,19 @@
         <v>25114</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17333</v>
+        <v>17472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40021</v>
+        <v>38973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0283211677729819</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01954671936652969</v>
+        <v>0.01970316605497768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04513311483215467</v>
+        <v>0.04395023282879899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4681,19 +4681,19 @@
         <v>7746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3853</v>
+        <v>3803</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14735</v>
+        <v>14100</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01091663906951633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005430386973647189</v>
+        <v>0.005359827426034095</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0207656689399357</v>
+        <v>0.01987059170923344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -4702,19 +4702,19 @@
         <v>32860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23017</v>
+        <v>22538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46840</v>
+        <v>46977</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02058457849932005</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01441831906287265</v>
+        <v>0.01411869421995296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02934209901190101</v>
+        <v>0.02942768875115183</v>
       </c>
     </row>
     <row r="17">
@@ -4731,19 +4731,19 @@
         <v>5116</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2023</v>
+        <v>1916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11382</v>
+        <v>12133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00576937091273476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002281556874285553</v>
+        <v>0.002160753497850469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01283554125703555</v>
+        <v>0.01368223399180438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4752,19 +4752,19 @@
         <v>6886</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2036</v>
+        <v>2095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15059</v>
+        <v>15266</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009703912785919986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002869431932147262</v>
+        <v>0.002952717889055036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0212218942632769</v>
+        <v>0.02151403576580357</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -4773,19 +4773,19 @@
         <v>12002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6248</v>
+        <v>6111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23279</v>
+        <v>21568</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007518337229001458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003914017249923053</v>
+        <v>0.003828225921363722</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01458253266047534</v>
+        <v>0.01351069094290944</v>
       </c>
     </row>
     <row r="18">
@@ -4802,19 +4802,19 @@
         <v>121076</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102803</v>
+        <v>99549</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144812</v>
+        <v>144625</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1365397197220216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1159336545600734</v>
+        <v>0.1122632148472071</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1633082160006961</v>
+        <v>0.1630973176758582</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -4823,19 +4823,19 @@
         <v>67686</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52580</v>
+        <v>52887</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>86627</v>
+        <v>86196</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09538560778869513</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07409799688578299</v>
+        <v>0.07453068493301859</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1220789025489535</v>
+        <v>0.1214713671651603</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>177</v>
@@ -4844,19 +4844,19 @@
         <v>188761</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>162427</v>
+        <v>164563</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>214798</v>
+        <v>217177</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1182460637216121</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1017495068109128</v>
+        <v>0.1030879081623786</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1345567116883258</v>
+        <v>0.136046859848948</v>
       </c>
     </row>
     <row r="19">
@@ -4948,19 +4948,19 @@
         <v>571679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>544802</v>
+        <v>543849</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>596755</v>
+        <v>595782</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7127676788542345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6792573067245122</v>
+        <v>0.6780690780476804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7440321475624418</v>
+        <v>0.7428191854928052</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>471</v>
@@ -4969,19 +4969,19 @@
         <v>505060</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>485020</v>
+        <v>486623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>523329</v>
+        <v>522648</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8307132452930039</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.797751078613519</v>
+        <v>0.8003878628393631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8607612234312022</v>
+        <v>0.8596404387648124</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1000</v>
@@ -4990,19 +4990,19 @@
         <v>1076739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1039296</v>
+        <v>1045726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1106428</v>
+        <v>1111579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7636237215474475</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7370686481381596</v>
+        <v>0.7416291644510125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7846793206101265</v>
+        <v>0.7883319464919544</v>
       </c>
     </row>
     <row r="21">
@@ -5019,19 +5019,19 @@
         <v>61420</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46883</v>
+        <v>46624</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78086</v>
+        <v>79485</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07657855341831291</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0584539173706726</v>
+        <v>0.05813047343724714</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09735727792729949</v>
+        <v>0.0991012209471815</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -5040,19 +5040,19 @@
         <v>14014</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7845</v>
+        <v>7978</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22680</v>
+        <v>23214</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02304933268720662</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01290284483445864</v>
+        <v>0.01312123384569133</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0373029229801481</v>
+        <v>0.03818167546829639</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>70</v>
@@ -5061,19 +5061,19 @@
         <v>75434</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60862</v>
+        <v>59114</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95149</v>
+        <v>95321</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05349769996165654</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.043163372474649</v>
+        <v>0.0419235353607685</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06748001313350083</v>
+        <v>0.06760135520010228</v>
       </c>
     </row>
     <row r="22">
@@ -5090,19 +5090,19 @@
         <v>4820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1029</v>
+        <v>1896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13363</v>
+        <v>13379</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006009265803108547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001282581187187588</v>
+        <v>0.002364513997321224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01666118495742188</v>
+        <v>0.01668100179281829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7280</v>
+        <v>7396</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003520578281258119</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01197388164108176</v>
+        <v>0.01216507133368927</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -5132,19 +5132,19 @@
         <v>6960</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2880</v>
+        <v>3054</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15479</v>
+        <v>15591</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004936187749538835</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002042773920877504</v>
+        <v>0.002165646647026014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01097741778588703</v>
+        <v>0.01105712177884745</v>
       </c>
     </row>
     <row r="23">
@@ -5161,19 +5161,19 @@
         <v>4838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1028</v>
+        <v>1923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10786</v>
+        <v>11683</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006031873660304802</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001281317129351659</v>
+        <v>0.002397031400293743</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01344830307055901</v>
+        <v>0.01456579780303128</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7649</v>
+        <v>7771</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003627285196111021</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01258080780851869</v>
+        <v>0.01278189103407728</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -5203,19 +5203,19 @@
         <v>7043</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2919</v>
+        <v>3044</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14247</v>
+        <v>13447</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004995057633327381</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002070161862125656</v>
+        <v>0.002158920270437028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01010424034797138</v>
+        <v>0.009536388631190386</v>
       </c>
     </row>
     <row r="24">
@@ -5232,19 +5232,19 @@
         <v>29157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20298</v>
+        <v>19744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40231</v>
+        <v>40301</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03635333285625953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0253074529270299</v>
+        <v>0.02461724883278892</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05016003995450007</v>
+        <v>0.05024750186209495</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -5253,19 +5253,19 @@
         <v>13301</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7200</v>
+        <v>8004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22422</v>
+        <v>22607</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02187678247890195</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01184206143817337</v>
+        <v>0.01316495975620999</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03687891159267591</v>
+        <v>0.03718297619928599</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -5274,19 +5274,19 @@
         <v>42458</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30883</v>
+        <v>30934</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56318</v>
+        <v>57804</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03011130031302231</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02190241488821382</v>
+        <v>0.02193865062281977</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03994051608148979</v>
+        <v>0.0409945824880695</v>
       </c>
     </row>
     <row r="25">
@@ -5303,19 +5303,19 @@
         <v>16132</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9909</v>
+        <v>9507</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27886</v>
+        <v>27967</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02011395577754147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01235444114265235</v>
+        <v>0.01185356421258588</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03476792290491548</v>
+        <v>0.03486920491058053</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -5324,19 +5324,19 @@
         <v>5222</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1993</v>
+        <v>1971</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11769</v>
+        <v>11599</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00858832792180759</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003278504949190701</v>
+        <v>0.003241393474628733</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01935753150477411</v>
+        <v>0.01907855783495552</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -5345,19 +5345,19 @@
         <v>21354</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13299</v>
+        <v>13232</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34524</v>
+        <v>32428</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01514430884637359</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009431944244171543</v>
+        <v>0.009383877414075778</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02448458531065669</v>
+        <v>0.0229976622536146</v>
       </c>
     </row>
     <row r="26">
@@ -5374,19 +5374,19 @@
         <v>114008</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96893</v>
+        <v>96017</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137154</v>
+        <v>134358</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1421453396302383</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1208062600231682</v>
+        <v>0.1197141474004704</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1710032242784144</v>
+        <v>0.1675173475615625</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -5395,19 +5395,19 @@
         <v>66042</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51042</v>
+        <v>51580</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>81963</v>
+        <v>82304</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1086244481417108</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08395289048961992</v>
+        <v>0.08483796074208785</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1348111004269182</v>
+        <v>0.1353724794676139</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>169</v>
@@ -5416,19 +5416,19 @@
         <v>180050</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>156653</v>
+        <v>156220</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209122</v>
+        <v>207324</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1276917239486338</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1110981911681846</v>
+        <v>0.1107911393929478</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1483090946711101</v>
+        <v>0.147034460067262</v>
       </c>
     </row>
     <row r="27">
@@ -5520,19 +5520,19 @@
         <v>303272</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>283998</v>
+        <v>280631</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>326375</v>
+        <v>322318</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.668838716103571</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6263321420235912</v>
+        <v>0.6189061918026367</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.719791573092216</v>
+        <v>0.7108438752361308</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>252</v>
@@ -5541,19 +5541,19 @@
         <v>278773</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>262311</v>
+        <v>261470</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>292024</v>
+        <v>290804</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8261006102619455</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7773203376450322</v>
+        <v>0.774826160379033</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8653698746603162</v>
+        <v>0.8617529409831062</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>530</v>
@@ -5562,19 +5562,19 @@
         <v>582044</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>553846</v>
+        <v>554823</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>607144</v>
+        <v>609242</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7359393606340642</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7002849443615464</v>
+        <v>0.7015214107395814</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7676755301207742</v>
+        <v>0.7703283498943089</v>
       </c>
     </row>
     <row r="29">
@@ -5591,19 +5591,19 @@
         <v>42852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30083</v>
+        <v>30014</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58395</v>
+        <v>59187</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09450715374057871</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06634587011311205</v>
+        <v>0.0661934091063856</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1287850710498895</v>
+        <v>0.1305322338245893</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -5612,19 +5612,19 @@
         <v>10012</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5012</v>
+        <v>4982</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18433</v>
+        <v>17526</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02966858602574744</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01485301772336495</v>
+        <v>0.01476237373850693</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05462375334233049</v>
+        <v>0.05193620550833777</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -5633,19 +5633,19 @@
         <v>52864</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>39633</v>
+        <v>38934</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70344</v>
+        <v>72716</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06684177613983765</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05011255381614726</v>
+        <v>0.04922826099297006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08894363333330568</v>
+        <v>0.09194224123458274</v>
       </c>
     </row>
     <row r="30">
@@ -5662,19 +5662,19 @@
         <v>6017</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2080</v>
+        <v>2149</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12831</v>
+        <v>12896</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01327014025552442</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004587086520668667</v>
+        <v>0.004739162009313991</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0282983885482555</v>
+        <v>0.02844208799407334</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5683,19 +5683,19 @@
         <v>2954</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8937</v>
+        <v>7949</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008753322162716922</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002769886303254006</v>
+        <v>0.002777920648807572</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02648294091062491</v>
+        <v>0.0235560070001184</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -5704,19 +5704,19 @@
         <v>8971</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4810</v>
+        <v>4066</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15799</v>
+        <v>17257</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01134290030412748</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006081660409745806</v>
+        <v>0.005140951165238423</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01997631004020827</v>
+        <v>0.02181998740316984</v>
       </c>
     </row>
     <row r="31">
@@ -5733,19 +5733,19 @@
         <v>12793</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6294</v>
+        <v>6460</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24011</v>
+        <v>23867</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02821364725176006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01387984546825293</v>
+        <v>0.01424681335890031</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05295396843416965</v>
+        <v>0.05263566503268047</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5767,19 +5767,19 @@
         <v>12793</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6268</v>
+        <v>6225</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24044</v>
+        <v>25300</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01617542320975195</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.007925779318299972</v>
+        <v>0.007870879026858636</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03040192303502814</v>
+        <v>0.0319895168398903</v>
       </c>
     </row>
     <row r="32">
@@ -5796,19 +5796,19 @@
         <v>25447</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16686</v>
+        <v>16571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37952</v>
+        <v>37440</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05612136322607757</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03679986564993148</v>
+        <v>0.03654629199568584</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08369961832033562</v>
+        <v>0.08257088363288763</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -5817,19 +5817,19 @@
         <v>11079</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5224</v>
+        <v>5299</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20653</v>
+        <v>20875</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03282989048488245</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01547993420809026</v>
+        <v>0.01570178903665339</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06120063502756597</v>
+        <v>0.06186046778595563</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -5838,19 +5838,19 @@
         <v>36526</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24546</v>
+        <v>25903</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50764</v>
+        <v>50625</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04618333697144861</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03103655020854</v>
+        <v>0.03275201048211427</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0641868680327906</v>
+        <v>0.06401023319164645</v>
       </c>
     </row>
     <row r="33">
@@ -5867,19 +5867,19 @@
         <v>11506</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5911</v>
+        <v>5851</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>20343</v>
+        <v>19419</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02537572771101016</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0130371736296677</v>
+        <v>0.01290370070807855</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04486562737981614</v>
+        <v>0.04282610831115594</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6225</v>
+        <v>6449</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005907831665777131</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01844764523642689</v>
+        <v>0.01911004887348424</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>13</v>
@@ -5909,19 +5909,19 @@
         <v>13500</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>7206</v>
+        <v>7526</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>21872</v>
+        <v>22856</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01706914855349203</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.009110702119277029</v>
+        <v>0.009516352091709247</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02765493202648848</v>
+        <v>0.02889923794684113</v>
       </c>
     </row>
     <row r="34">
@@ -5938,19 +5938,19 @@
         <v>51543</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>38838</v>
+        <v>38900</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>67939</v>
+        <v>65414</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1136732517114781</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08565448444929313</v>
+        <v>0.08579055395717722</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1498344750389718</v>
+        <v>0.1442643148782715</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>29</v>
@@ -5959,19 +5959,19 @@
         <v>32645</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>22438</v>
+        <v>23552</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>45232</v>
+        <v>46625</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09673975939893063</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06649151154124397</v>
+        <v>0.0697936857268395</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1340393987725367</v>
+        <v>0.1381646901757002</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>77</v>
@@ -5980,19 +5980,19 @@
         <v>84188</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>67639</v>
+        <v>66968</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>102743</v>
+        <v>103478</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1064480541872781</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0855228898702847</v>
+        <v>0.08467471771586985</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.129908422502178</v>
+        <v>0.1308381713231591</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>2375838</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2325986</v>
+        <v>2325511</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2427412</v>
+        <v>2428196</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7604230071422341</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7444672123476261</v>
+        <v>0.7443151684289223</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7769302512344692</v>
+        <v>0.7771811047849965</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1903</v>
@@ -6105,19 +6105,19 @@
         <v>2064467</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2024611</v>
+        <v>2026341</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2101877</v>
+        <v>2100296</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8524998385489594</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8360417310996738</v>
+        <v>0.8367561484986921</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8679476169155389</v>
+        <v>0.8672950389700868</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4118</v>
@@ -6126,19 +6126,19 @@
         <v>4440306</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4371828</v>
+        <v>4380637</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4500650</v>
+        <v>4505841</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8006282032135379</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7882810421639939</v>
+        <v>0.7898693328892772</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8115088410540954</v>
+        <v>0.8124448281283151</v>
       </c>
     </row>
     <row r="37">
@@ -6155,19 +6155,19 @@
         <v>168231</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>142433</v>
+        <v>141158</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>198306</v>
+        <v>197254</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05384478436130514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04558782194639613</v>
+        <v>0.04517985514241833</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06347082786914401</v>
+        <v>0.06313427566409653</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -6176,19 +6176,19 @@
         <v>47419</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35180</v>
+        <v>35012</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>65652</v>
+        <v>63530</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01958108406180586</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01452724969199229</v>
+        <v>0.01445788120503605</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02711040794294553</v>
+        <v>0.02623410380213599</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>194</v>
@@ -6197,19 +6197,19 @@
         <v>215649</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>187166</v>
+        <v>183695</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>252365</v>
+        <v>248629</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03888359632275649</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03374767641381906</v>
+        <v>0.03312184020441879</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04550375845738569</v>
+        <v>0.04483003168727051</v>
       </c>
     </row>
     <row r="38">
@@ -6226,19 +6226,19 @@
         <v>27197</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>17844</v>
+        <v>16670</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41043</v>
+        <v>40229</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.008704684277024869</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.005711132039849093</v>
+        <v>0.005335501421038252</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01313657276363905</v>
+        <v>0.01287582227899783</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -6247,19 +6247,19 @@
         <v>13535</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7517</v>
+        <v>7464</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>24208</v>
+        <v>23294</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.005588939195216518</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003104003906911306</v>
+        <v>0.003082120905533554</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.009996486846891448</v>
+        <v>0.009618854714809732</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>36</v>
@@ -6268,19 +6268,19 @@
         <v>40731</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>29204</v>
+        <v>28757</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>56321</v>
+        <v>56885</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.007344199342775105</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.005265749412412563</v>
+        <v>0.005185092444071302</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01015520785168417</v>
+        <v>0.0102569744663898</v>
       </c>
     </row>
     <row r="39">
@@ -6297,19 +6297,19 @@
         <v>26354</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>17419</v>
+        <v>15968</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>40545</v>
+        <v>37945</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.008434876845415858</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.005575115049075103</v>
+        <v>0.005110956525905849</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01297701862089699</v>
+        <v>0.01214485017222533</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -6318,19 +6318,19 @@
         <v>5287</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>11437</v>
+        <v>12402</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002183282736734344</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0008141185861524148</v>
+        <v>0.0008291294739338578</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.004722874344663033</v>
+        <v>0.005121456153454601</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>28</v>
@@ -6339,19 +6339,19 @@
         <v>31641</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>21284</v>
+        <v>20996</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>45315</v>
+        <v>45172</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.005705128622570416</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003837646675017848</v>
+        <v>0.003785859942181041</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.008170641747668869</v>
+        <v>0.008145007162521603</v>
       </c>
     </row>
     <row r="40">
@@ -6368,19 +6368,19 @@
         <v>103304</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>83716</v>
+        <v>84355</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>122329</v>
+        <v>126054</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03306405169765227</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02679454804142404</v>
+        <v>0.02699907654513177</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03915330749388342</v>
+        <v>0.04034555952384389</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>39</v>
@@ -6389,19 +6389,19 @@
         <v>41374</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30099</v>
+        <v>30554</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>55138</v>
+        <v>56111</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01708503137919114</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01242912455724445</v>
+        <v>0.01261691118776866</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02276871419545021</v>
+        <v>0.02317058236194922</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>138</v>
@@ -6410,19 +6410,19 @@
         <v>144678</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>121991</v>
+        <v>120607</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>169358</v>
+        <v>167994</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02608683891658613</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02199601958430509</v>
+        <v>0.02174648165973584</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03053679433197082</v>
+        <v>0.03029095987457793</v>
       </c>
     </row>
     <row r="41">
@@ -6439,19 +6439,19 @@
         <v>39738</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>27402</v>
+        <v>28528</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>52765</v>
+        <v>55084</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01271888939836934</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008770329843211562</v>
+        <v>0.009130814663141279</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01688815804915054</v>
+        <v>0.01763047064117422</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -6460,19 +6460,19 @@
         <v>18212</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10272</v>
+        <v>10057</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28011</v>
+        <v>28653</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.007520334221305187</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004241605228375479</v>
+        <v>0.004153042583030914</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01156665745210721</v>
+        <v>0.0118317477547614</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>52</v>
@@ -6481,19 +6481,19 @@
         <v>57950</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>42250</v>
+        <v>43697</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>74277</v>
+        <v>76234</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01044894888251782</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007618083773670502</v>
+        <v>0.007878960590784361</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01339284541189898</v>
+        <v>0.01374561508024606</v>
       </c>
     </row>
     <row r="42">
@@ -6510,19 +6510,19 @@
         <v>383702</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>346137</v>
+        <v>349467</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>421164</v>
+        <v>424567</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1228097062779984</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1107863563658126</v>
+        <v>0.1118523449567943</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1348000426769106</v>
+        <v>0.1358891143289608</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>211</v>
@@ -6531,19 +6531,19 @@
         <v>231369</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>200540</v>
+        <v>204131</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>263819</v>
+        <v>263216</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09554148985678756</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08281066791328616</v>
+        <v>0.08429385850051795</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1089414048527785</v>
+        <v>0.1086922970661048</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>575</v>
@@ -6552,19 +6552,19 @@
         <v>615072</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>569133</v>
+        <v>567774</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>668485</v>
+        <v>664808</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1109030846992561</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1026199544369142</v>
+        <v>0.1023749890266685</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1205340252188577</v>
+        <v>0.1198709582073908</v>
       </c>
     </row>
     <row r="43">
@@ -6896,19 +6896,19 @@
         <v>886468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>859634</v>
+        <v>860694</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>909034</v>
+        <v>911255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8406699885070168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8152223716754659</v>
+        <v>0.8162276007774182</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8620698626881301</v>
+        <v>0.8641760905920599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>773</v>
@@ -6917,19 +6917,19 @@
         <v>808497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>789358</v>
+        <v>790900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>823614</v>
+        <v>825232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9080849390584287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8865883160854414</v>
+        <v>0.8883200130490921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9250637112398425</v>
+        <v>0.9268807617046563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1613</v>
@@ -6938,19 +6938,19 @@
         <v>1694965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1661209</v>
+        <v>1665083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1722548</v>
+        <v>1721532</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8715324712465634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.854175580732755</v>
+        <v>0.8561672423778962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8857153318897325</v>
+        <v>0.8851927464139066</v>
       </c>
     </row>
     <row r="5">
@@ -6967,19 +6967,19 @@
         <v>40305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28919</v>
+        <v>28151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55589</v>
+        <v>54851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03822274519639414</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02742491460573766</v>
+        <v>0.02669632233684003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05271690198044461</v>
+        <v>0.05201765463673821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -6988,19 +6988,19 @@
         <v>8669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3746</v>
+        <v>3926</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16464</v>
+        <v>16877</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009736337832579366</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004207385132261741</v>
+        <v>0.004409038136677719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01849149935423663</v>
+        <v>0.01895586203293214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -7009,19 +7009,19 @@
         <v>48974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35676</v>
+        <v>36283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65488</v>
+        <v>63382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02518170239525816</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0183441079343425</v>
+        <v>0.01865633398785922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03367297478103354</v>
+        <v>0.03259033709616944</v>
       </c>
     </row>
     <row r="6">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8755</v>
+        <v>8243</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002441768428731757</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.00830293584016263</v>
+        <v>0.007817304597616811</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6647</v>
+        <v>7180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002407708567164138</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007465230285067475</v>
+        <v>0.008064068520777833</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -7080,19 +7080,19 @@
         <v>4718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1549</v>
+        <v>1164</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12526</v>
+        <v>11824</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002426175865344199</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0007965344783215565</v>
+        <v>0.0005987536114252339</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006440973842229504</v>
+        <v>0.006079912822106505</v>
       </c>
     </row>
     <row r="7">
@@ -7109,19 +7109,19 @@
         <v>4782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1784</v>
+        <v>1057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13409</v>
+        <v>12227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00453466033045573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001692059872239148</v>
+        <v>0.001002412819157924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01271647070294144</v>
+        <v>0.01159532856657358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -7130,19 +7130,19 @@
         <v>2945</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8062</v>
+        <v>8003</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003307465752343441</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001020197579361104</v>
+        <v>0.001015893538381414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009054996714204653</v>
+        <v>0.00898910327929011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -7151,19 +7151,19 @@
         <v>7726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3024</v>
+        <v>3393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14971</v>
+        <v>16039</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003972852138426098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001555041694310114</v>
+        <v>0.001744457377936655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007698127576814236</v>
+        <v>0.008247073966134971</v>
       </c>
     </row>
     <row r="8">
@@ -7180,19 +7180,19 @@
         <v>16615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9739</v>
+        <v>9551</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26462</v>
+        <v>25370</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01575614494685928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009235593858302926</v>
+        <v>0.009057273055669656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02509460669858783</v>
+        <v>0.02405897606984269</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7201,19 +7201,19 @@
         <v>4501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11324</v>
+        <v>11978</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005055035247103374</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001130383588890152</v>
+        <v>0.001107366056892888</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01271936799545587</v>
+        <v>0.01345341185578185</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -7222,19 +7222,19 @@
         <v>21115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13329</v>
+        <v>12783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32295</v>
+        <v>32831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01085718988271742</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006853428269266477</v>
+        <v>0.00657312131190095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01660578580846335</v>
+        <v>0.016881392223068</v>
       </c>
     </row>
     <row r="9">
@@ -7251,19 +7251,19 @@
         <v>6719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2712</v>
+        <v>2106</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14980</v>
+        <v>13891</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00637199947621026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002571428615208256</v>
+        <v>0.001997481333317335</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01420576843810677</v>
+        <v>0.01317346035439856</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -7272,19 +7272,19 @@
         <v>6287</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2583</v>
+        <v>2786</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12984</v>
+        <v>13280</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007061665455569032</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00290080711608802</v>
+        <v>0.003129037731728235</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01458330805804063</v>
+        <v>0.0149155351896371</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -7293,19 +7293,19 @@
         <v>13006</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6813</v>
+        <v>7173</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21647</v>
+        <v>22576</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006687727726545183</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00350311601240855</v>
+        <v>0.003688339662068722</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.011130880434717</v>
+        <v>0.01160843497998301</v>
       </c>
     </row>
     <row r="10">
@@ -7322,19 +7322,19 @@
         <v>97015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79372</v>
+        <v>80172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119248</v>
+        <v>120688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09200269311433203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07527092225765769</v>
+        <v>0.07603028136904719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1130869458499702</v>
+        <v>0.1144531128656524</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -7343,19 +7343,19 @@
         <v>57290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43646</v>
+        <v>43588</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72208</v>
+        <v>73359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06434684808681199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04902188922240083</v>
+        <v>0.04895703532927709</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08110279648606421</v>
+        <v>0.08239475297287346</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -7364,19 +7364,19 @@
         <v>154305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132861</v>
+        <v>132441</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181268</v>
+        <v>183468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07934188074514549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06831567756656928</v>
+        <v>0.06809950612779515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09320578886205112</v>
+        <v>0.09433717086583632</v>
       </c>
     </row>
     <row r="11">
@@ -7468,19 +7468,19 @@
         <v>637898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>613142</v>
+        <v>615937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>660528</v>
+        <v>659966</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7894343387446311</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.758797241828187</v>
+        <v>0.7622569172447469</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8174408997075588</v>
+        <v>0.8167449968178055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>548</v>
@@ -7489,19 +7489,19 @@
         <v>567982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>549230</v>
+        <v>550700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>584208</v>
+        <v>584598</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8702380752871023</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8415069428416022</v>
+        <v>0.8437592488139273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8950989795298693</v>
+        <v>0.8956966455445627</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1169</v>
@@ -7510,19 +7510,19 @@
         <v>1205879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1174786</v>
+        <v>1175334</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1233167</v>
+        <v>1233055</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.825538830324449</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8042523139783262</v>
+        <v>0.8046272770590629</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8442198432093142</v>
+        <v>0.8441430216077631</v>
       </c>
     </row>
     <row r="13">
@@ -7539,19 +7539,19 @@
         <v>39117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27770</v>
+        <v>27942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54683</v>
+        <v>53647</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04840889713766632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03436638214832827</v>
+        <v>0.03457951513334584</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06767352233945946</v>
+        <v>0.06639153457155021</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7560,19 +7560,19 @@
         <v>12388</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6392</v>
+        <v>7055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20983</v>
+        <v>20920</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01898068366805213</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00979372452191301</v>
+        <v>0.01080984637107631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03214968718317224</v>
+        <v>0.03205349591187355</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -7581,19 +7581,19 @@
         <v>51505</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38392</v>
+        <v>39011</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67629</v>
+        <v>69526</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03525986800998097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02628312149574377</v>
+        <v>0.02670687081130457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04629865765146832</v>
+        <v>0.04759717455093598</v>
       </c>
     </row>
     <row r="14">
@@ -7610,19 +7610,19 @@
         <v>3016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10389</v>
+        <v>8749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003732018214831774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001098878361963326</v>
+        <v>0.001095717551719491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01285653868956449</v>
+        <v>0.01082764288952079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7589</v>
+        <v>6119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001865784187969136</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01162709047708893</v>
+        <v>0.009375050014355056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -7652,19 +7652,19 @@
         <v>4233</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1140</v>
+        <v>1217</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10864</v>
+        <v>10061</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00289815293097307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0007806026077167013</v>
+        <v>0.0008334936749094218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007437116515416126</v>
+        <v>0.006887774491059083</v>
       </c>
     </row>
     <row r="15">
@@ -7681,19 +7681,19 @@
         <v>6411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1989</v>
+        <v>1865</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15557</v>
+        <v>15909</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007933987184296177</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002461181233185917</v>
+        <v>0.002308630247548795</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01925254411015476</v>
+        <v>0.01968846045244654</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -7715,19 +7715,19 @@
         <v>6411</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14583</v>
+        <v>14159</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00438894600492891</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001364087120970997</v>
+        <v>0.001357187414542821</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009983492352584987</v>
+        <v>0.009693462275214745</v>
       </c>
     </row>
     <row r="16">
@@ -7744,19 +7744,19 @@
         <v>16581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9647</v>
+        <v>9481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26620</v>
+        <v>26320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02052020671997413</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01193811869865552</v>
+        <v>0.01173271399916347</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03294347787568203</v>
+        <v>0.03257189160473922</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -7765,19 +7765,19 @@
         <v>9890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5108</v>
+        <v>4199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18828</v>
+        <v>17863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01515333597783743</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007826058605017725</v>
+        <v>0.006434286770979591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02884782767044968</v>
+        <v>0.02736818425602458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -7786,19 +7786,19 @@
         <v>26471</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16898</v>
+        <v>17684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37695</v>
+        <v>38873</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01812219707573448</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01156827185800934</v>
+        <v>0.01210653736964781</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0258056642945664</v>
+        <v>0.02661250183267375</v>
       </c>
     </row>
     <row r="17">
@@ -7815,19 +7815,19 @@
         <v>6668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2633</v>
+        <v>2524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13852</v>
+        <v>14440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00825242219149268</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003258373190995364</v>
+        <v>0.003123569960843236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01714222264862446</v>
+        <v>0.01786984637538996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11003</v>
+        <v>10115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004305890211601271</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01685814941153643</v>
+        <v>0.01549744374326995</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -7857,19 +7857,19 @@
         <v>9479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4131</v>
+        <v>4421</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19072</v>
+        <v>18632</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006489044200147212</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002827843328561804</v>
+        <v>0.003026829584728916</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01305628681786916</v>
+        <v>0.01275566123102195</v>
       </c>
     </row>
     <row r="18">
@@ -7886,19 +7886,19 @@
         <v>98354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81276</v>
+        <v>82279</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117323</v>
+        <v>117089</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1217181298071078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1005838374805611</v>
+        <v>0.1018249690902981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1451934365917615</v>
+        <v>0.144904262877954</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -7907,19 +7907,19 @@
         <v>58386</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44006</v>
+        <v>44774</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73922</v>
+        <v>74185</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0894562306674377</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06742375452943961</v>
+        <v>0.0686010311094621</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.113260445304608</v>
+        <v>0.1136634389774025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>153</v>
@@ -7928,19 +7928,19 @@
         <v>156739</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133392</v>
+        <v>134625</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>183181</v>
+        <v>181781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1073029614537864</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09131975159451892</v>
+        <v>0.09216357195615023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.125404781723507</v>
+        <v>0.124446174645339</v>
       </c>
     </row>
     <row r="19">
@@ -8032,19 +8032,19 @@
         <v>531681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>508509</v>
+        <v>506425</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>554003</v>
+        <v>555259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7188861017618033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.687555688990569</v>
+        <v>0.6847377290505566</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7490674366853027</v>
+        <v>0.7507661376800029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>437</v>
@@ -8053,19 +8053,19 @@
         <v>453278</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>435676</v>
+        <v>434737</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>469337</v>
+        <v>469145</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8633516316008377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8298251673809981</v>
+        <v>0.8280379375995233</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8939403375960229</v>
+        <v>0.893572926160228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>944</v>
@@ -8074,19 +8074,19 @@
         <v>984959</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>953330</v>
+        <v>953685</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1016348</v>
+        <v>1014532</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7788630110975351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7538524783835903</v>
+        <v>0.7541331668570498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8036841537149674</v>
+        <v>0.8022480449869406</v>
       </c>
     </row>
     <row r="21">
@@ -8103,19 +8103,19 @@
         <v>39285</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27831</v>
+        <v>27512</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53748</v>
+        <v>53693</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05311785518472823</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03763010079981369</v>
+        <v>0.03719846636936661</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07267287015141759</v>
+        <v>0.07259839156173614</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -8124,19 +8124,19 @@
         <v>8926</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4228</v>
+        <v>3403</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17745</v>
+        <v>15886</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01700071371412349</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008053146590952293</v>
+        <v>0.006481209907293558</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03379887664818969</v>
+        <v>0.03025863528825614</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -8145,19 +8145,19 @@
         <v>48211</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35606</v>
+        <v>35435</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64871</v>
+        <v>64422</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03812331273670024</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02815579290849503</v>
+        <v>0.02802060337595582</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05129736687426197</v>
+        <v>0.05094231617046955</v>
       </c>
     </row>
     <row r="22">
@@ -8174,19 +8174,19 @@
         <v>7505</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3000</v>
+        <v>3151</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14734</v>
+        <v>15142</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01014785922672638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00405646380666107</v>
+        <v>0.004260843212913989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01992174669749443</v>
+        <v>0.02047334122953368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -8195,19 +8195,19 @@
         <v>3108</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8975</v>
+        <v>9473</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005919002502493183</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001580865175937187</v>
+        <v>0.001585571696800653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01709438056028332</v>
+        <v>0.0180422193894206</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -8216,19 +8216,19 @@
         <v>10613</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5636</v>
+        <v>5520</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18957</v>
+        <v>19412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008392189506581122</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004456894497335153</v>
+        <v>0.00436536115173274</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01499038713948215</v>
+        <v>0.01535001030873425</v>
       </c>
     </row>
     <row r="23">
@@ -8245,19 +8245,19 @@
         <v>3881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9606</v>
+        <v>9242</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00524684330312313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001352701718358187</v>
+        <v>0.001334626363864292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01298884079386203</v>
+        <v>0.01249588167083393</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -8279,19 +8279,19 @@
         <v>3881</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1011</v>
+        <v>1121</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9326</v>
+        <v>9608</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003068542047170664</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0007994158433171654</v>
+        <v>0.0008863139058308128</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.007374300214255424</v>
+        <v>0.0075975320844801</v>
       </c>
     </row>
     <row r="24">
@@ -8308,19 +8308,19 @@
         <v>18854</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11124</v>
+        <v>11284</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29201</v>
+        <v>28728</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02549213278180289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01504020261045273</v>
+        <v>0.01525674352965449</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0394827352282433</v>
+        <v>0.03884366795599632</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -8329,19 +8329,19 @@
         <v>13223</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7110</v>
+        <v>6502</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22852</v>
+        <v>22734</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02518491796398278</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01354185204651345</v>
+        <v>0.01238494010597242</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0435259501250011</v>
+        <v>0.04330149441590056</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -8350,19 +8350,19 @@
         <v>32076</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21688</v>
+        <v>21385</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45354</v>
+        <v>44941</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02536458820216842</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01714971859156844</v>
+        <v>0.01691030468671715</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03586364333533195</v>
+        <v>0.03553758470763278</v>
       </c>
     </row>
     <row r="25">
@@ -8379,19 +8379,19 @@
         <v>6874</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2820</v>
+        <v>2726</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13839</v>
+        <v>13247</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009294571049751137</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003813063670232221</v>
+        <v>0.003685193067048033</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01871200745255353</v>
+        <v>0.01791090261177899</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7058</v>
+        <v>7281</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003916359730579135</v>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01344364778458414</v>
+        <v>0.01386821513649428</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -8421,19 +8421,19 @@
         <v>8930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4214</v>
+        <v>4306</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16412</v>
+        <v>16796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007061730502682257</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003332500889497929</v>
+        <v>0.003404626496829516</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01297789318716998</v>
+        <v>0.01328154148012074</v>
       </c>
     </row>
     <row r="26">
@@ -8450,19 +8450,19 @@
         <v>131510</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113221</v>
+        <v>112170</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>151408</v>
+        <v>155036</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1778146366920648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1530855207745171</v>
+        <v>0.1516649880682281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2047186191644736</v>
+        <v>0.2096236039741928</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -8471,19 +8471,19 @@
         <v>44431</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31416</v>
+        <v>32865</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58966</v>
+        <v>59140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08462737448798371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05983675204701326</v>
+        <v>0.06259713580037686</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1123108116224208</v>
+        <v>0.11264318101553</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>170</v>
@@ -8492,19 +8492,19 @@
         <v>175941</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>152391</v>
+        <v>153980</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>204543</v>
+        <v>202871</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1391266259071622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1205041710787401</v>
+        <v>0.1217608266564407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1617436314714863</v>
+        <v>0.1604219272206919</v>
       </c>
     </row>
     <row r="27">
@@ -8596,19 +8596,19 @@
         <v>316262</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>296629</v>
+        <v>294666</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>336217</v>
+        <v>334650</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7025998742391456</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6589847791354315</v>
+        <v>0.654623413023508</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7469316957117357</v>
+        <v>0.743450439898811</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>242</v>
@@ -8617,19 +8617,19 @@
         <v>261298</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>242472</v>
+        <v>245617</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>275436</v>
+        <v>276685</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7692352029708193</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7138145768969963</v>
+        <v>0.7230729351847818</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8108585433546198</v>
+        <v>0.8145328487984281</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>536</v>
@@ -8638,19 +8638,19 @@
         <v>577560</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>548054</v>
+        <v>548011</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>603539</v>
+        <v>602111</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7312584958539524</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.693900620633235</v>
+        <v>0.6938458844863568</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7641512733551846</v>
+        <v>0.7623432196218064</v>
       </c>
     </row>
     <row r="29">
@@ -8667,19 +8667,19 @@
         <v>35494</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24949</v>
+        <v>24686</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48372</v>
+        <v>49040</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07885369110795794</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05542665474170904</v>
+        <v>0.05484100561638999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1074628064669488</v>
+        <v>0.1089462851353325</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -8688,19 +8688,19 @@
         <v>17314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9771</v>
+        <v>10252</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27417</v>
+        <v>27652</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05097217428252446</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0287648354953073</v>
+        <v>0.03018176590010698</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08071300913308878</v>
+        <v>0.08140386074987786</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -8709,19 +8709,19 @@
         <v>52809</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>39949</v>
+        <v>39436</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70294</v>
+        <v>70899</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06686236674660365</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05058054476724465</v>
+        <v>0.04993043704779603</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08900092498153149</v>
+        <v>0.08976656142697152</v>
       </c>
     </row>
     <row r="30">
@@ -8738,19 +8738,19 @@
         <v>6950</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3016</v>
+        <v>2949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13747</v>
+        <v>13526</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01544025336212551</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00670057947830783</v>
+        <v>0.006552351727033431</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03054014766126328</v>
+        <v>0.03004957969734146</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6242</v>
+        <v>5818</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005660379482801622</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01837559476265094</v>
+        <v>0.01712846237906001</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -8780,19 +8780,19 @@
         <v>8873</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3934</v>
+        <v>4790</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16522</v>
+        <v>16353</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01123411061048253</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004981491893445847</v>
+        <v>0.006064702438663341</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02091919405366094</v>
+        <v>0.02070544426999816</v>
       </c>
     </row>
     <row r="31">
@@ -8809,19 +8809,19 @@
         <v>7020</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2713</v>
+        <v>2846</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15519</v>
+        <v>14684</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0155956443473443</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006027171696106644</v>
+        <v>0.006323005589882172</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03447724776417679</v>
+        <v>0.0326221522767155</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7744</v>
+        <v>7822</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004546468604658109</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0227961962368494</v>
+        <v>0.02302715545168213</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -8851,19 +8851,19 @@
         <v>8564</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3783</v>
+        <v>3582</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18019</v>
+        <v>17653</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01084359835624181</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004789596186899046</v>
+        <v>0.004535134606245831</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02281449508679513</v>
+        <v>0.02235097218181937</v>
       </c>
     </row>
     <row r="32">
@@ -8880,19 +8880,19 @@
         <v>19240</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11006</v>
+        <v>11990</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29524</v>
+        <v>29638</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04274305403957781</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02445097845075574</v>
+        <v>0.02663778009698187</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06558917154742515</v>
+        <v>0.06584260344541377</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -8901,19 +8901,19 @@
         <v>9780</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4289</v>
+        <v>4995</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17292</v>
+        <v>18229</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02879070986684261</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01262678803578379</v>
+        <v>0.01470410311066625</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05090547111055257</v>
+        <v>0.05366350845868458</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -8922,19 +8922,19 @@
         <v>29020</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20017</v>
+        <v>19326</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>42116</v>
+        <v>41872</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03674240903794354</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02534448430225749</v>
+        <v>0.02446937803476536</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05332326458157569</v>
+        <v>0.05301454623204625</v>
       </c>
     </row>
     <row r="33">
@@ -8951,19 +8951,19 @@
         <v>12106</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5937</v>
+        <v>6397</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>21205</v>
+        <v>21283</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02689342439680226</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01318968513954809</v>
+        <v>0.01421211455801853</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04710956830298235</v>
+        <v>0.04728227581887052</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -8972,19 +8972,19 @@
         <v>3129</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>9604</v>
+        <v>8692</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.009211174884536492</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.002447116383304629</v>
+        <v>0.002406606487032458</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02827201863768634</v>
+        <v>0.02558971940555926</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>14</v>
@@ -8993,19 +8993,19 @@
         <v>15234</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8495</v>
+        <v>8613</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>25504</v>
+        <v>25293</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01928861614094149</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01075546711967726</v>
+        <v>0.01090498189417621</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03229103771164159</v>
+        <v>0.03202334215426848</v>
       </c>
     </row>
     <row r="34">
@@ -9022,19 +9022,19 @@
         <v>53059</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>39757</v>
+        <v>40873</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>68618</v>
+        <v>66989</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1178740585070466</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08832358761647661</v>
+        <v>0.09080286042337536</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1524411543342969</v>
+        <v>0.1488205840594622</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>43</v>
@@ -9043,19 +9043,19 @@
         <v>44697</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33273</v>
+        <v>33347</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>57467</v>
+        <v>59871</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1315838899078175</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09795378246364721</v>
+        <v>0.09817162820383181</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1691787631406184</v>
+        <v>0.1762535090899998</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>92</v>
@@ -9064,19 +9064,19 @@
         <v>97756</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>80334</v>
+        <v>78776</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>118481</v>
+        <v>118134</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1237704032538345</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1017126659842112</v>
+        <v>0.09973975502398064</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1500115056918947</v>
+        <v>0.1495710005908427</v>
       </c>
     </row>
     <row r="35">
@@ -9168,19 +9168,19 @@
         <v>2372309</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2328389</v>
+        <v>2325219</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2420783</v>
+        <v>2417035</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7772345510275837</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.762845338749929</v>
+        <v>0.7618066525750113</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7931161489618251</v>
+        <v>0.7918880484851972</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2000</v>
@@ -9189,19 +9189,19 @@
         <v>2091054</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2054721</v>
+        <v>2058930</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2125124</v>
+        <v>2121711</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8684818703912522</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8533914360220922</v>
+        <v>0.8551397285163123</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8826323362959406</v>
+        <v>0.8812144980600318</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4262</v>
@@ -9210,19 +9210,19 @@
         <v>4463362</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4406956</v>
+        <v>4400913</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4519199</v>
+        <v>4517566</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8174724747264115</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.807141596309315</v>
+        <v>0.8060347990909609</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8276991113579277</v>
+        <v>0.8273999751767878</v>
       </c>
     </row>
     <row r="37">
@@ -9239,19 +9239,19 @@
         <v>154201</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>130360</v>
+        <v>131653</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>183517</v>
+        <v>183350</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05052070553273266</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04270943087522626</v>
+        <v>0.04313303595471274</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06012520055837544</v>
+        <v>0.06007055027894703</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -9260,19 +9260,19 @@
         <v>47297</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33885</v>
+        <v>35225</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>61724</v>
+        <v>64515</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01964395749316892</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01407341886467584</v>
+        <v>0.01463001694806501</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02563599831980061</v>
+        <v>0.02679506344158596</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>184</v>
@@ -9281,19 +9281,19 @@
         <v>201498</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>174515</v>
+        <v>173187</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>235299</v>
+        <v>236258</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03690478519284613</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03196281455213688</v>
+        <v>0.0317194233680589</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04309545240693138</v>
+        <v>0.04327112535175688</v>
       </c>
     </row>
     <row r="38">
@@ -9310,19 +9310,19 @@
         <v>20046</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12787</v>
+        <v>12028</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31277</v>
+        <v>31559</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.006567567293225033</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004189435850935728</v>
+        <v>0.003940597548926406</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01024714813172831</v>
+        <v>0.01033957139853349</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -9331,19 +9331,19 @@
         <v>8392</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3696</v>
+        <v>3789</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16687</v>
+        <v>16043</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003485365660876354</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001534861661102896</v>
+        <v>0.001573716157108434</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.006930667949546011</v>
+        <v>0.006663354614123815</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>27</v>
@@ -9352,19 +9352,19 @@
         <v>28438</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>18381</v>
+        <v>19081</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>40370</v>
+        <v>40155</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005208388799306125</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003366470287358562</v>
+        <v>0.003494765121207179</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007393807078646863</v>
+        <v>0.00735442634743644</v>
       </c>
     </row>
     <row r="39">
@@ -9381,19 +9381,19 @@
         <v>22093</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13219</v>
+        <v>13396</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>33935</v>
+        <v>35442</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.007238382328853199</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.004330759937236211</v>
+        <v>0.004388952430076556</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01111795752176803</v>
+        <v>0.01161163226666571</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -9402,19 +9402,19 @@
         <v>4489</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1542</v>
+        <v>1093</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12206</v>
+        <v>11592</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001864471353551182</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0006405283442873477</v>
+        <v>0.000453821685612595</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.005069392731571069</v>
+        <v>0.004814657615869592</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>23</v>
@@ -9423,19 +9423,19 @@
         <v>26582</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>16587</v>
+        <v>17424</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>37812</v>
+        <v>41619</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.004868613865555273</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003037872014357196</v>
+        <v>0.003191280975043621</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.006925393161552601</v>
+        <v>0.00762253882258466</v>
       </c>
     </row>
     <row r="40">
@@ -9452,19 +9452,19 @@
         <v>71289</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>56260</v>
+        <v>54798</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>89986</v>
+        <v>90022</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02335640573045449</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01843233363201131</v>
+        <v>0.0179533548977649</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02948183384174616</v>
+        <v>0.02949385720145207</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -9473,19 +9473,19 @@
         <v>37393</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>26615</v>
+        <v>26747</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>51628</v>
+        <v>53630</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01553061015160097</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01105395362719346</v>
+        <v>0.01110897593728375</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02144275638601068</v>
+        <v>0.02227420896778849</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>102</v>
@@ -9494,19 +9494,19 @@
         <v>108683</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>89576</v>
+        <v>88992</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>132005</v>
+        <v>129660</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01990541377167141</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01640597436420056</v>
+        <v>0.01629903684270757</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02417687545159938</v>
+        <v>0.02374746314509859</v>
       </c>
     </row>
     <row r="41">
@@ -9523,19 +9523,19 @@
         <v>32367</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>22348</v>
+        <v>22212</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>45564</v>
+        <v>46716</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01060439175078746</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007321984055432821</v>
+        <v>0.007277315743331572</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01492809500533463</v>
+        <v>0.01530534863035359</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -9544,19 +9544,19 @@
         <v>14283</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8152</v>
+        <v>8028</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24977</v>
+        <v>24174</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005932037831616933</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003385667857767118</v>
+        <v>0.003334355531641727</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01037383935991513</v>
+        <v>0.01004003827511891</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>43</v>
@@ -9565,19 +9565,19 @@
         <v>46650</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>33569</v>
+        <v>34861</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>63033</v>
+        <v>63658</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008543993463970936</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00614828945211768</v>
+        <v>0.006384924236417406</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01154452446032089</v>
+        <v>0.01165899489998955</v>
       </c>
     </row>
     <row r="42">
@@ -9594,19 +9594,19 @@
         <v>379937</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>343850</v>
+        <v>346390</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>415521</v>
+        <v>416309</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1244779963363635</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1126548805376856</v>
+        <v>0.1134869040025357</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1361364279434286</v>
+        <v>0.1363945040443978</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>193</v>
@@ -9615,19 +9615,19 @@
         <v>204804</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>178104</v>
+        <v>177070</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>232187</v>
+        <v>231109</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0850616871179334</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07397227326962524</v>
+        <v>0.0735430127846958</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09643454747962994</v>
+        <v>0.09598718237827718</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>561</v>
@@ -9636,19 +9636,19 @@
         <v>584741</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>538287</v>
+        <v>539396</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>631604</v>
+        <v>634415</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1070963301802386</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09858818140415135</v>
+        <v>0.09879129195213705</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1156793532989642</v>
+        <v>0.1161942198677354</v>
       </c>
     </row>
     <row r="43">
@@ -9980,19 +9980,19 @@
         <v>383571</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>366962</v>
+        <v>367074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>396930</v>
+        <v>396705</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.854237523503418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8172495642137395</v>
+        <v>0.8174988295609243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8839892302901737</v>
+        <v>0.883488995328428</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>560</v>
@@ -10001,19 +10001,19 @@
         <v>398680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>387593</v>
+        <v>386886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>408064</v>
+        <v>408210</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.892766573131217</v>
+        <v>0.8927665731312171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8679385190998166</v>
+        <v>0.8663555547840743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9137794807116059</v>
+        <v>0.9141059023910383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>921</v>
@@ -10022,19 +10022,19 @@
         <v>782252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>761786</v>
+        <v>763148</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>799106</v>
+        <v>799236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8734492684583861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8505977994514942</v>
+        <v>0.8521187273627925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8922690048961063</v>
+        <v>0.8924140164886586</v>
       </c>
     </row>
     <row r="5">
@@ -10051,19 +10051,19 @@
         <v>17192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10737</v>
+        <v>10800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26584</v>
+        <v>27024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03828834935162446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02391225350303967</v>
+        <v>0.02405321207300235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05920398920926206</v>
+        <v>0.0601837949718272</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -10072,19 +10072,19 @@
         <v>9324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4843</v>
+        <v>4687</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16187</v>
+        <v>16534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02088037037756926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01084454021300363</v>
+        <v>0.01049522437126322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03624821798974284</v>
+        <v>0.03702510047534853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -10093,19 +10093,19 @@
         <v>26517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17200</v>
+        <v>17824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36735</v>
+        <v>37397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02960820656425347</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01920518611591714</v>
+        <v>0.01990183824121459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04101774887925001</v>
+        <v>0.04175635382781367</v>
       </c>
     </row>
     <row r="6">
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3375</v>
+        <v>3102</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001338650400168051</v>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007515463432465935</v>
+        <v>0.006909279240385388</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4453</v>
+        <v>4439</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003008221723784536</v>
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00997245765073081</v>
+        <v>0.009940443387319985</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -10164,19 +10164,19 @@
         <v>1944</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5700</v>
+        <v>5235</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002171148963286152</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006669795885346204</v>
+        <v>0.000673637130333999</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006364287219511375</v>
+        <v>0.005845757063718218</v>
       </c>
     </row>
     <row r="7">
@@ -10206,19 +10206,19 @@
         <v>2109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5780</v>
+        <v>5739</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.004721943367770511</v>
+        <v>0.00472194336777051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001357835660899691</v>
+        <v>0.001372414304835642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01294397322097647</v>
+        <v>0.01285060052166282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -10227,19 +10227,19 @@
         <v>2109</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5696</v>
+        <v>6429</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.002354503226779776</v>
+        <v>0.002354503226779775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006864178786388814</v>
+        <v>0.0006822578126759464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006360611493900322</v>
+        <v>0.007178503834744904</v>
       </c>
     </row>
     <row r="8">
@@ -10256,19 +10256,19 @@
         <v>2900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7813</v>
+        <v>8615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006458647764620461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001765637853873816</v>
+        <v>0.001848527292883403</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01739985009639532</v>
+        <v>0.01918579669983092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -10277,19 +10277,19 @@
         <v>3597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1305</v>
+        <v>1473</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7960</v>
+        <v>7724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008055124481221735</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002922934664964869</v>
+        <v>0.003299253629078499</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01782383190428596</v>
+        <v>0.01729595917763288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -10298,19 +10298,19 @@
         <v>6497</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3200</v>
+        <v>3052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12709</v>
+        <v>12860</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007254699154472531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003572770344643185</v>
+        <v>0.003407879807231934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01419081556948919</v>
+        <v>0.01435882958498131</v>
       </c>
     </row>
     <row r="9">
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8064</v>
+        <v>8219</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004998526200644907</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01795890603443712</v>
+        <v>0.01830472681911962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3048</v>
+        <v>2645</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001345553747016695</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006824649899014225</v>
+        <v>0.005923432293162855</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -10369,19 +10369,19 @@
         <v>2845</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8908</v>
+        <v>8510</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003177044077815841</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006777271868405636</v>
+        <v>0.0006764111378270999</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009946472490093845</v>
+        <v>0.009502450530324858</v>
       </c>
     </row>
     <row r="10">
@@ -10398,19 +10398,19 @@
         <v>42513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31215</v>
+        <v>31017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56627</v>
+        <v>55697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09467830277952426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06951687215557463</v>
+        <v>0.06907648754014224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1261110549973916</v>
+        <v>0.1240414060183317</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -10419,19 +10419,19 @@
         <v>30912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23128</v>
+        <v>23600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40460</v>
+        <v>40808</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06922221317142033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05179046794865932</v>
+        <v>0.05284764195917677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09060289189886073</v>
+        <v>0.09138120863833202</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -10440,19 +10440,19 @@
         <v>73425</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59836</v>
+        <v>59658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91714</v>
+        <v>89696</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08198512955500607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06681208773029976</v>
+        <v>0.06661359209365794</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1024059557071527</v>
+        <v>0.100153358786136</v>
       </c>
     </row>
     <row r="11">
@@ -10544,19 +10544,19 @@
         <v>683851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>658055</v>
+        <v>654780</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>710063</v>
+        <v>708266</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7647590818105889</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7359107690572179</v>
+        <v>0.7322478308433471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7940720762470671</v>
+        <v>0.7920624202951897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>978</v>
@@ -10565,19 +10565,19 @@
         <v>674716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>658763</v>
+        <v>657695</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>690840</v>
+        <v>691588</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8529582674639161</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8327903966972021</v>
+        <v>0.831440612640336</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.873340982157182</v>
+        <v>0.8742873470686288</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1640</v>
@@ -10586,19 +10586,19 @@
         <v>1358568</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1325220</v>
+        <v>1323695</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1388984</v>
+        <v>1391860</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8061588066669543</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7863706836177979</v>
+        <v>0.785465832219826</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8242074444901971</v>
+        <v>0.8259142633474862</v>
       </c>
     </row>
     <row r="13">
@@ -10615,19 +10615,19 @@
         <v>56082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42186</v>
+        <v>41256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74197</v>
+        <v>74397</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06271661614630027</v>
+        <v>0.06271661614630028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0471770258553088</v>
+        <v>0.04613727699975429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08297572527454543</v>
+        <v>0.08319921023736075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -10636,19 +10636,19 @@
         <v>20760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14289</v>
+        <v>13527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31157</v>
+        <v>30495</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02624409019010582</v>
+        <v>0.02624409019010583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01806318095504026</v>
+        <v>0.0170998718095619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03938779394158398</v>
+        <v>0.03855151169960468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -10657,19 +10657,19 @@
         <v>76841</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60553</v>
+        <v>59807</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97085</v>
+        <v>97888</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04559681477604652</v>
+        <v>0.04559681477604653</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03593140914269392</v>
+        <v>0.0354890063528192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05760943368156263</v>
+        <v>0.05808564068894084</v>
       </c>
     </row>
     <row r="14">
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3962</v>
+        <v>2769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.000656553510999696</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004430900915631678</v>
+        <v>0.003097164267025449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3984</v>
+        <v>4098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001380497653341383</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005035942722646469</v>
+        <v>0.005180454035744983</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -10728,19 +10728,19 @@
         <v>1679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4573</v>
+        <v>4617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009963649058818058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0002531139191466003</v>
+        <v>0.0002540595303908794</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.002713359353552172</v>
+        <v>0.002739818792219274</v>
       </c>
     </row>
     <row r="15">
@@ -10757,19 +10757,19 @@
         <v>6306</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1829</v>
+        <v>1801</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20025</v>
+        <v>19826</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007052596703344766</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002045243635606018</v>
+        <v>0.002013644031011713</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02239379893986274</v>
+        <v>0.02217121267245674</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -10778,19 +10778,19 @@
         <v>3146</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>675</v>
+        <v>743</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10936</v>
+        <v>11671</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003977199453055339</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0008536088132243193</v>
+        <v>0.0009387040482439128</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0138250267536747</v>
+        <v>0.01475399256353508</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -10799,19 +10799,19 @@
         <v>9453</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3236</v>
+        <v>3792</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22261</v>
+        <v>22116</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005609039157513819</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001920366234963809</v>
+        <v>0.002250061060656937</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01320917856995379</v>
+        <v>0.0131233435931119</v>
       </c>
     </row>
     <row r="16">
@@ -10828,19 +10828,19 @@
         <v>22871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14266</v>
+        <v>15760</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32715</v>
+        <v>34001</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02557655334258029</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01595369581455191</v>
+        <v>0.01762465025335473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03658514082373569</v>
+        <v>0.03802370648869342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -10849,19 +10849,19 @@
         <v>10941</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6331</v>
+        <v>5883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18809</v>
+        <v>17842</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01383161334986126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008003538169267138</v>
+        <v>0.007437417213627028</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02377737557427927</v>
+        <v>0.02255597901145504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -10870,19 +10870,19 @@
         <v>33812</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23697</v>
+        <v>24256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46963</v>
+        <v>45752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02006360806364904</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01406165404544152</v>
+        <v>0.01439326775506606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02786747990932577</v>
+        <v>0.0271486722981128</v>
       </c>
     </row>
     <row r="17">
@@ -10899,19 +10899,19 @@
         <v>5816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2213</v>
+        <v>2353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12904</v>
+        <v>13392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006504164466342406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002474653487656256</v>
+        <v>0.00263119357430152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0144307093858282</v>
+        <v>0.01497587573385977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -10920,19 +10920,19 @@
         <v>2625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7540</v>
+        <v>8064</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00331818856908301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0007683730923787557</v>
+        <v>0.0008303077060939737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.009531387938662267</v>
+        <v>0.01019491247364569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -10941,19 +10941,19 @@
         <v>8441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4235</v>
+        <v>4193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16119</v>
+        <v>16606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005008702523371788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002512722793921585</v>
+        <v>0.002487967451154486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009564763851696582</v>
+        <v>0.009854074644522275</v>
       </c>
     </row>
     <row r="18">
@@ -10970,19 +10970,19 @@
         <v>118692</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98249</v>
+        <v>100558</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141632</v>
+        <v>139721</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1327344340198437</v>
+        <v>0.1327344340198436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1098725775867308</v>
+        <v>0.1124554739768524</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1583884783266333</v>
+        <v>0.1562521294500667</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -10991,19 +10991,19 @@
         <v>77751</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65949</v>
+        <v>64638</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93243</v>
+        <v>92309</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09829014332063707</v>
+        <v>0.09829014332063708</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08337115467742635</v>
+        <v>0.08171355670500439</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1178757511258793</v>
+        <v>0.1166943731704668</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>245</v>
@@ -11012,19 +11012,19 @@
         <v>196442</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>172067</v>
+        <v>171732</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>224022</v>
+        <v>222360</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1165666639065827</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1021027207056736</v>
+        <v>0.1019038809657376</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1329318520464903</v>
+        <v>0.1319461789244837</v>
       </c>
     </row>
     <row r="19">
@@ -11116,19 +11116,19 @@
         <v>615389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>583667</v>
+        <v>583151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>646384</v>
+        <v>646619</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6382422029629176</v>
+        <v>0.6382422029629173</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6053427914063143</v>
+        <v>0.6048073100677134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6703887221868366</v>
+        <v>0.6706322081093467</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>905</v>
@@ -11137,19 +11137,19 @@
         <v>608238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>586248</v>
+        <v>586775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>628484</v>
+        <v>626570</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7518884169638694</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7247046378802469</v>
+        <v>0.7253565979768665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7769160585569344</v>
+        <v>0.7745506650500309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1512</v>
@@ -11158,19 +11158,19 @@
         <v>1223627</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1186030</v>
+        <v>1187264</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1265040</v>
+        <v>1259288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6900902306614037</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6688867285383289</v>
+        <v>0.6695830120413594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7134460279081223</v>
+        <v>0.7102024171988301</v>
       </c>
     </row>
     <row r="21">
@@ -11187,19 +11187,19 @@
         <v>113440</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95770</v>
+        <v>94644</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>135929</v>
+        <v>135284</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1176531616869291</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0993262743466376</v>
+        <v>0.09815876582488828</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1409766101235836</v>
+        <v>0.1403082493633572</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>79</v>
@@ -11208,19 +11208,19 @@
         <v>56351</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44454</v>
+        <v>44908</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70000</v>
+        <v>68528</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06966013144915069</v>
+        <v>0.06966013144915068</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05495279277015676</v>
+        <v>0.05551389424079264</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08653239353540541</v>
+        <v>0.0847125281336425</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>199</v>
@@ -11229,19 +11229,19 @@
         <v>169792</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>147303</v>
+        <v>148291</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>193391</v>
+        <v>192991</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09575763280391875</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08307454657779914</v>
+        <v>0.08363187470872692</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1090670254179731</v>
+        <v>0.1088412261231278</v>
       </c>
     </row>
     <row r="22">
@@ -11258,19 +11258,19 @@
         <v>3445</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9387</v>
+        <v>10268</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003573073700236828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00115099190677603</v>
+        <v>0.001139307458660764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009735419236996376</v>
+        <v>0.01064882840239483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3568</v>
+        <v>4015</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0008752998556823202</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.004410110556885412</v>
+        <v>0.004962676498438135</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -11300,19 +11300,19 @@
         <v>4153</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1164</v>
+        <v>1134</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11561</v>
+        <v>9910</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002342286962233027</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0006562307302376547</v>
+        <v>0.0006396924866847872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006520060605664437</v>
+        <v>0.005588725011670453</v>
       </c>
     </row>
     <row r="23">
@@ -11329,19 +11329,19 @@
         <v>12161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5992</v>
+        <v>5690</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27668</v>
+        <v>24852</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01261263070190974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006214693800066241</v>
+        <v>0.005901395339996361</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.028695997203063</v>
+        <v>0.02577483995126014</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -11350,19 +11350,19 @@
         <v>5527</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2532</v>
+        <v>2645</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10421</v>
+        <v>10722</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006832384013317356</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003130410908349585</v>
+        <v>0.003269603071811652</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01288250810266788</v>
+        <v>0.01325448846766629</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -11371,19 +11371,19 @@
         <v>17688</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10633</v>
+        <v>10305</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32739</v>
+        <v>31616</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009975548656997006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005996868862019195</v>
+        <v>0.00581179874995334</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01846401400822737</v>
+        <v>0.01783040131630366</v>
       </c>
     </row>
     <row r="24">
@@ -11400,19 +11400,19 @@
         <v>42044</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31029</v>
+        <v>31055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56135</v>
+        <v>54448</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04360552563495382</v>
+        <v>0.04360552563495381</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03218131663648608</v>
+        <v>0.0322084301869827</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05821982189961782</v>
+        <v>0.05647047039754277</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -11421,19 +11421,19 @@
         <v>19300</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13137</v>
+        <v>13564</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28467</v>
+        <v>27980</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02385862860411494</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01623936658151109</v>
+        <v>0.01676786491016699</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0351898268484445</v>
+        <v>0.03458765343331097</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -11442,19 +11442,19 @@
         <v>61345</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48618</v>
+        <v>48294</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>76724</v>
+        <v>76618</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03459653511807209</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02741917592107471</v>
+        <v>0.02723616314132199</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04326991588017371</v>
+        <v>0.04321036766924803</v>
       </c>
     </row>
     <row r="25">
@@ -11471,19 +11471,19 @@
         <v>13889</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7721</v>
+        <v>7951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21963</v>
+        <v>22892</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01440439071026852</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008007646712186831</v>
+        <v>0.008246273873434434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02277851388025445</v>
+        <v>0.02374247860428303</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -11492,19 +11492,19 @@
         <v>3777</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1374</v>
+        <v>1409</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8660</v>
+        <v>8688</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004668432583183455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001697898002876745</v>
+        <v>0.001742183332079667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01070580466554282</v>
+        <v>0.01074012337041502</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -11513,19 +11513,19 @@
         <v>17665</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10525</v>
+        <v>10647</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26507</v>
+        <v>28827</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009962621742582724</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005935665089698943</v>
+        <v>0.006004499687381091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01494921684274247</v>
+        <v>0.0162575741295437</v>
       </c>
     </row>
     <row r="26">
@@ -11542,19 +11542,19 @@
         <v>163825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140845</v>
+        <v>141230</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>187293</v>
+        <v>187926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1699090146027845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1460760135604646</v>
+        <v>0.1464750628906061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1942482793788469</v>
+        <v>0.194904900858158</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>174</v>
@@ -11563,19 +11563,19 @@
         <v>115046</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99279</v>
+        <v>99326</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135143</v>
+        <v>133400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1422167065306818</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1227267402635693</v>
+        <v>0.1227844692837255</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1670599132976089</v>
+        <v>0.1649063390943752</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>354</v>
@@ -11584,19 +11584,19 @@
         <v>278871</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>249584</v>
+        <v>252458</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>308493</v>
+        <v>308518</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1572751440547928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1407579811239829</v>
+        <v>0.1423789315174806</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1739812791517267</v>
+        <v>0.1739953778385711</v>
       </c>
     </row>
     <row r="27">
@@ -11688,19 +11688,19 @@
         <v>627504</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>598599</v>
+        <v>597286</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>654759</v>
+        <v>652838</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.700509060102029</v>
+        <v>0.7005090601020291</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6682415923978757</v>
+        <v>0.666775653376841</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7309346464932707</v>
+        <v>0.7287901548312573</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>866</v>
@@ -11709,19 +11709,19 @@
         <v>591147</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>572652</v>
+        <v>572184</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>609217</v>
+        <v>608653</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8059058580930494</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7806918234360748</v>
+        <v>0.7800539188303133</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.830540385812705</v>
+        <v>0.8297711702182732</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1479</v>
@@ -11730,19 +11730,19 @@
         <v>1218651</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1181254</v>
+        <v>1184602</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1250497</v>
+        <v>1252251</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7479591775066291</v>
+        <v>0.7479591775066292</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7250067511684707</v>
+        <v>0.7270615933570395</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7675050029406635</v>
+        <v>0.7685820238927701</v>
       </c>
     </row>
     <row r="29">
@@ -11759,19 +11759,19 @@
         <v>81906</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>66378</v>
+        <v>64696</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>99478</v>
+        <v>101381</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09143471571090493</v>
+        <v>0.09143471571090492</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07410043036568326</v>
+        <v>0.07222288495034238</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.111051639604408</v>
+        <v>0.1131753596754029</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -11780,19 +11780,19 @@
         <v>23606</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16428</v>
+        <v>16625</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32372</v>
+        <v>33413</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03218126580201706</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02239555346023931</v>
+        <v>0.0226644737519343</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04413298001025105</v>
+        <v>0.04555172939691116</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>121</v>
@@ -11801,19 +11801,19 @@
         <v>105511</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>88172</v>
+        <v>86717</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>125468</v>
+        <v>126490</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06475854329963421</v>
+        <v>0.06475854329963422</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05411665810403973</v>
+        <v>0.05322353872349709</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07700719406363392</v>
+        <v>0.07763428886262438</v>
       </c>
     </row>
     <row r="30">
@@ -11830,19 +11830,19 @@
         <v>10926</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5874</v>
+        <v>5350</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18360</v>
+        <v>18386</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0121968276260504</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006557157877587619</v>
+        <v>0.005971905397842834</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02049572359322788</v>
+        <v>0.02052548599718525</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -11851,19 +11851,19 @@
         <v>4985</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2089</v>
+        <v>2042</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10370</v>
+        <v>10216</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.00679650717438608</v>
+        <v>0.006796507174386078</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002847687278504783</v>
+        <v>0.002784122681659093</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01413684173867641</v>
+        <v>0.01392780664378197</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -11872,19 +11872,19 @@
         <v>15911</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10005</v>
+        <v>9811</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24285</v>
+        <v>24945</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009765578818323168</v>
+        <v>0.009765578818323167</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006140797122741948</v>
+        <v>0.006021432834023878</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01490538893073721</v>
+        <v>0.0153104573413</v>
       </c>
     </row>
     <row r="31">
@@ -11901,19 +11901,19 @@
         <v>19168</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12552</v>
+        <v>12040</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29817</v>
+        <v>30066</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02139773643863963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01401257401283123</v>
+        <v>0.0134412241799443</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03328620619533286</v>
+        <v>0.0335635376953146</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -11922,19 +11922,19 @@
         <v>8584</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4252</v>
+        <v>4747</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14155</v>
+        <v>14455</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01170296044884649</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.005796417775164198</v>
+        <v>0.006470973342602934</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01929760033099896</v>
+        <v>0.01970655022067301</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -11943,19 +11943,19 @@
         <v>27752</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19656</v>
+        <v>19231</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39356</v>
+        <v>39815</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.01703310423258174</v>
+        <v>0.01703310423258175</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01206401287764861</v>
+        <v>0.01180348743373682</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02415531139007972</v>
+        <v>0.02443693380153978</v>
       </c>
     </row>
     <row r="32">
@@ -11972,19 +11972,19 @@
         <v>48295</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36202</v>
+        <v>37510</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62923</v>
+        <v>64495</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05391323914506367</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04041413943058026</v>
+        <v>0.04187401258738492</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07024382581478324</v>
+        <v>0.07199890979069745</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>43</v>
@@ -11993,19 +11993,19 @@
         <v>24150</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17556</v>
+        <v>18130</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33295</v>
+        <v>32532</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03292362631314913</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02393444410611995</v>
+        <v>0.02471675426333837</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04539069980640788</v>
+        <v>0.04435088747674667</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>100</v>
@@ -12014,19 +12014,19 @@
         <v>72445</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58383</v>
+        <v>58499</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>88457</v>
+        <v>88596</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.0444636200661586</v>
+        <v>0.04446362006615861</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03583296214061506</v>
+        <v>0.03590460741376425</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0542914307304817</v>
+        <v>0.05437661789616199</v>
       </c>
     </row>
     <row r="33">
@@ -12043,19 +12043,19 @@
         <v>20188</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>13011</v>
+        <v>12673</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>31985</v>
+        <v>31009</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02253687340921755</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0145242151194032</v>
+        <v>0.01414721014507597</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03570648667652198</v>
+        <v>0.03461649486038513</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -12064,19 +12064,19 @@
         <v>3909</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1810</v>
+        <v>1734</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8066</v>
+        <v>8345</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005329419077024601</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.002467909717450874</v>
+        <v>0.002363553432254701</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01099573068030813</v>
+        <v>0.01137686938275766</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>27</v>
@@ -12085,19 +12085,19 @@
         <v>24097</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>15855</v>
+        <v>16120</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>36199</v>
+        <v>35135</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01478999927394812</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.009731211724901099</v>
+        <v>0.009893773313165497</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02221762402385694</v>
+        <v>0.02156436753348178</v>
       </c>
     </row>
     <row r="34">
@@ -12114,19 +12114,19 @@
         <v>87797</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72410</v>
+        <v>71264</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>107499</v>
+        <v>107248</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09801154756809491</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08083393319265141</v>
+        <v>0.07955506919951513</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1200053184643376</v>
+        <v>0.1197259662161751</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>116</v>
@@ -12135,19 +12135,19 @@
         <v>77137</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>64021</v>
+        <v>64213</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>91999</v>
+        <v>92583</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1051603630915273</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08727919082663776</v>
+        <v>0.08754129434719256</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1254212719692735</v>
+        <v>0.126218078184014</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>206</v>
@@ -12156,19 +12156,19 @@
         <v>164934</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>142252</v>
+        <v>142317</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>189673</v>
+        <v>188937</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1012299768027249</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08730856446295482</v>
+        <v>0.08734839062573432</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1164138257887032</v>
+        <v>0.1159617011454809</v>
       </c>
     </row>
     <row r="35">
@@ -12260,19 +12260,19 @@
         <v>2310314</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2258135</v>
+        <v>2256846</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2361461</v>
+        <v>2358366</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.7212516786057934</v>
+        <v>0.7212516786057933</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7049620070058101</v>
+        <v>0.7045596717626804</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7372191188119444</v>
+        <v>0.7362529872696291</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3309</v>
@@ -12281,19 +12281,19 @@
         <v>2272782</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2236914</v>
+        <v>2237711</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2309294</v>
+        <v>2306818</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8175285465604253</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8046264594304019</v>
+        <v>0.8049133603696333</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8306617985117053</v>
+        <v>0.8297710880514474</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5552</v>
@@ -12302,19 +12302,19 @@
         <v>4583097</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4518198</v>
+        <v>4517886</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4649928</v>
+        <v>4647519</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7659857665858951</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7551391055184095</v>
+        <v>0.7550869141824096</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7771555482928172</v>
+        <v>0.7767527957748911</v>
       </c>
     </row>
     <row r="37">
@@ -12331,19 +12331,19 @@
         <v>268620</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>238136</v>
+        <v>238259</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>303480</v>
+        <v>302053</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08385976871867597</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07434302144026815</v>
+        <v>0.07438152264230666</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09474276566174002</v>
+        <v>0.0942971863650459</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>150</v>
@@ -12352,19 +12352,19 @@
         <v>110041</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>92847</v>
+        <v>93980</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>129369</v>
+        <v>129874</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03958228917005924</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03339725989771922</v>
+        <v>0.03380488470403497</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04653434913347543</v>
+        <v>0.04671623896533464</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>428</v>
@@ -12373,19 +12373,19 @@
         <v>378661</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>343777</v>
+        <v>345927</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>416515</v>
+        <v>414708</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06328667875693836</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05745646493215149</v>
+        <v>0.05781576881176645</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06961325898652694</v>
+        <v>0.06931124496931237</v>
       </c>
     </row>
     <row r="38">
@@ -12402,19 +12402,19 @@
         <v>15559</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9342</v>
+        <v>9423</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>24418</v>
+        <v>25686</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.004857332157364103</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002916430997261631</v>
+        <v>0.002941774861851589</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.007622877046961292</v>
+        <v>0.008018981889533027</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -12423,19 +12423,19 @@
         <v>8129</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4605</v>
+        <v>4463</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14421</v>
+        <v>13824</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.002923970758808089</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.00165647776381766</v>
+        <v>0.001605377996790169</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.005187423662257436</v>
+        <v>0.004972599397093509</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -12444,19 +12444,19 @@
         <v>23688</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15860</v>
+        <v>16273</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>33796</v>
+        <v>35369</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003959015035736381</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002650707501322428</v>
+        <v>0.002719688541465106</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.00564840846629673</v>
+        <v>0.005911304627640481</v>
       </c>
     </row>
     <row r="39">
@@ -12473,19 +12473,19 @@
         <v>37635</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>25276</v>
+        <v>26445</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>54694</v>
+        <v>54836</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01174924330274764</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.007890951431912705</v>
+        <v>0.008255769361116327</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01707469502452019</v>
+        <v>0.01711922974825491</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>26</v>
@@ -12494,19 +12494,19 @@
         <v>19366</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12706</v>
+        <v>12819</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>28173</v>
+        <v>28574</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.006966073519919434</v>
+        <v>0.006966073519919433</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004570417722904162</v>
+        <v>0.004611173191802346</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01013378176035159</v>
+        <v>0.01027824361288164</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>61</v>
@@ -12515,19 +12515,19 @@
         <v>57001</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>43484</v>
+        <v>42351</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>78617</v>
+        <v>77459</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.009526791093462755</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.007267622212870626</v>
+        <v>0.007078191704859772</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01313943026338717</v>
+        <v>0.01294601125006347</v>
       </c>
     </row>
     <row r="40">
@@ -12544,19 +12544,19 @@
         <v>116109</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>95890</v>
+        <v>98237</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>138837</v>
+        <v>140851</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03624792958564158</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02993575451890318</v>
+        <v>0.03066829993857733</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04334335173095845</v>
+        <v>0.04397198216846834</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>92</v>
@@ -12565,19 +12565,19 @@
         <v>57989</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>47401</v>
+        <v>46720</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>71457</v>
+        <v>71578</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02085881882819342</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01705033215127862</v>
+        <v>0.01680535246618547</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02570336568374537</v>
+        <v>0.02574671172017372</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>229</v>
@@ -12586,19 +12586,19 @@
         <v>174098</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>150686</v>
+        <v>153496</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>197197</v>
+        <v>199066</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0290975325153545</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02518459709522564</v>
+        <v>0.02565423642866618</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03295810635532293</v>
+        <v>0.03327047201965393</v>
       </c>
     </row>
     <row r="41">
@@ -12615,19 +12615,19 @@
         <v>42137</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31314</v>
+        <v>30440</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56430</v>
+        <v>56425</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01315472915876384</v>
+        <v>0.01315472915876385</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009775976799103518</v>
+        <v>0.009502872546782604</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0176166802056249</v>
+        <v>0.01761523139396517</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -12636,19 +12636,19 @@
         <v>10911</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6262</v>
+        <v>5773</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17582</v>
+        <v>17108</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003924878482431131</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002252396365719383</v>
+        <v>0.002076572034729486</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006324142837142575</v>
+        <v>0.006153731437822292</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>60</v>
@@ -12657,19 +12657,19 @@
         <v>53049</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>39781</v>
+        <v>39868</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>68932</v>
+        <v>69202</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008866170951897035</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006648629801349796</v>
+        <v>0.006663240661476663</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01152082731464745</v>
+        <v>0.01156592644827524</v>
       </c>
     </row>
     <row r="42">
@@ -12686,19 +12686,19 @@
         <v>412826</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>375545</v>
+        <v>377499</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>451693</v>
+        <v>450192</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1288793184710135</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1172405200724067</v>
+        <v>0.1178505247234911</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1410129957740192</v>
+        <v>0.1405444251551922</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>462</v>
@@ -12707,19 +12707,19 @@
         <v>300846</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>274253</v>
+        <v>273723</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>330235</v>
+        <v>328877</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1082154226801633</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09864999458311047</v>
+        <v>0.09845916177023768</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1187866268949559</v>
+        <v>0.1182983854881336</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>900</v>
@@ -12728,19 +12728,19 @@
         <v>713672</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>667951</v>
+        <v>662361</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>762455</v>
+        <v>762713</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1192780450607158</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1116364844300984</v>
+        <v>0.1107022000721891</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1274313113668659</v>
+        <v>0.1274742931841231</v>
       </c>
     </row>
     <row r="43">
